--- a/Answer_3.xlsx
+++ b/Answer_3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="162">
   <si>
     <t xml:space="preserve">Михаил Букачук</t>
   </si>
@@ -68,13 +68,19 @@
     <t xml:space="preserve">App\Controllers\ArticleController</t>
   </si>
   <si>
+    <t xml:space="preserve">2.1</t>
+  </si>
+  <si>
     <t xml:space="preserve"> - создать контроллер AbstractPrivateController:</t>
   </si>
   <si>
+    <t xml:space="preserve">будет использоваться для авторизованных пользователей</t>
+  </si>
+  <si>
     <t xml:space="preserve">public function __construct()    {        $this-&gt;user = Users::getUserById($_SESSION['user']['id']);    } </t>
   </si>
   <si>
-    <t xml:space="preserve">будет использоваться для авторизованных пользователей</t>
+    <t xml:space="preserve">2.2</t>
   </si>
   <si>
     <t xml:space="preserve"> - отнаследовать ArticleController от AbstractPrivateController </t>
@@ -92,7 +98,7 @@
     <t xml:space="preserve">а можно ли сразу использовать $_SESSION['user']['id'] — без доп.класса? </t>
   </si>
   <si>
-    <t xml:space="preserve">- наверное НЕТ, т. к. название переменной сессии м.б.изменено — и потребуется её изменение везде — здесь — только в этом классе</t>
+    <t xml:space="preserve">- наверное НЕТ, т. к. название переменной сессии м.б.изменено — и потребуется её изменение везде, а здесь — только в этом классе</t>
   </si>
   <si>
     <t xml:space="preserve"> - если пользователь не найден, то редирект на авторизацию</t>
@@ -101,6 +107,12 @@
     <t xml:space="preserve">2'20“</t>
   </si>
   <si>
+    <t xml:space="preserve">???????? нет, т. к. исп-ся и для неавт-х польз-й</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3</t>
+  </si>
+  <si>
     <t xml:space="preserve"> - создать контроллер AbstractController для различных утилит. </t>
   </si>
   <si>
@@ -113,40 +125,617 @@
     <t xml:space="preserve">'</t>
   </si>
   <si>
+    <t xml:space="preserve">2.4</t>
+  </si>
+  <si>
     <t xml:space="preserve"> - отнаследовать AbstractPrivateController от AbstractController </t>
   </si>
   <si>
     <t xml:space="preserve">3'20“</t>
   </si>
   <si>
+    <t xml:space="preserve">2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArticleController::article() - абстрактное название метода, непонятно что он делает</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3'40“</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Заменил на showArticle() </t>
+  </si>
+  <si>
     <t xml:space="preserve">В идеале на каждое действие надо создавать свой контроллер</t>
   </si>
   <si>
     <t xml:space="preserve">3'50“</t>
   </si>
   <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
     <t xml:space="preserve">ArticleController::addComment()</t>
   </si>
   <si>
     <t xml:space="preserve">4'10“</t>
   </si>
   <si>
+    <t xml:space="preserve">???</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как отобразить это в index.php: разные методы в контроллере? Ведь url — это фактически метод в контроллере. Как различить разные методы контроллера для одного url? Задать в форме action= «addComment»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Т.е. на странице статьи есть 3 формы: 
+1. Добавления комментария
+2. Утверждения комментария
+3. Отклонения комментария
+И всё это обрабатывается одним контроллером, т. к. у нас FrontController</t>
+  </si>
+  <si>
+    <t xml:space="preserve">index.php:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$router-&gt;post('article/*', [ArticleController::class, 'showArticle']); // showArticle — метод в классе, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">сделал:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$router-&gt;post('article/*', [ArticleController::class, 'addComment']); </t>
+  </si>
+  <si>
     <t xml:space="preserve">Лучше создать CommentController для добавления комментария к статье.</t>
   </si>
   <si>
-    <t xml:space="preserve">Лучше делать больше тонких контроллеров</t>
+    <t xml:space="preserve">4'20“</t>
+  </si>
+  <si>
+    <t xml:space="preserve">И его отнаследовать от AbstractPrivateController с проверкой авторизации?</t>
   </si>
   <si>
     <t xml:space="preserve">После header() надо ставить die(), т. к. браузер при опред.условиях может проскочить header() и пойти выполнять код дальше!</t>
   </si>
   <si>
-    <t xml:space="preserve">6'00“</t>
+    <t xml:space="preserve">5'55“</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лучше делать тонкий контроллеров, метод д.б. маленьким и в него умещалась вся логика</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6'30“</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Валидация</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7'10“</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сделать папку src/Validator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7'20“</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сделать класс валидации ArticleValidator в папке src/Validator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7'30“</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Всё надо разделять на классы, чтобы весь код не был в одном методе или классе…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArticleValidator::validate($text)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8'00“</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$errors = ArticleValidator::validate($text);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10'20“</t>
+  </si>
+  <si>
+    <t xml:space="preserve">«Не используете связи между моделями...»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10'40“</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Что это? Не проходили (((</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Comments::addComment($text, $articleId, </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">$user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">11'20“</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">$user — </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">прокидываем целиком объект</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> function addComment(string $text, string $articleId, </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Users</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> $user) </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">11'30“</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Проставлять тип (</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">type hint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">) аргумента  - скоро это будет обязательным…</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Вместо явного типа объекта ставить object )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверить все классы моделей  и проставить/заменить типы аргументов! 
+И возвращаемых значений — если возвращается что-то (object) и null, то не ставить тип? 
+Вместо явного типа объекта лучше ставить object, а то Model как-то странно реагирует…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fatal error: Uncaught TypeError: Return value of App\Model\Users::getUsers() must be an instance of App\Model\Users, instance of Illuminate\Database\Eloquent\Collection returned </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Users  — проверить что возвращается — должен быть объект, а не массив</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12'22“</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArticleMethods  — проверить что возвращается — должен быть объект, а не массив</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Articles  — проверить что возвращается — должен быть объект, а не массив</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$errors = false; - а потом массив — это неправильно! Надо:  $errors = null;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13'00“</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проверить везде</t>
+  </si>
+  <si>
+    <t xml:space="preserve">approve/deny — в идеале сделать на каждый по контроллеру</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14'10“</t>
+  </si>
+  <si>
+    <t xml:space="preserve">т.е.методу?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> в идеале  создать CommentController с методами approve, deny, addComment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14'25“</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вместо return View.. м.б.лучше сделать redirect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14'35“</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Как минимум сделать:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14'40“</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - вынести пользователя наружу и воспользоваться наследованием</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - сделать валидатор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сильно увлекаться наследованием не надо. 3 уровня уже достаточно много…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14'50“</t>
+  </si>
+  <si>
+    <t xml:space="preserve">!!!</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Если пользователь д.б.</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">авторизован</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">, наследуемся от </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">AbstractPrivateController</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">15'00“</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Если </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">публичный</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> контроллер, то наследуемся от </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">AbstractController</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Это контроллеры общие для всех: и для сайта, и для админки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15'40“</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - разбить контроллер по действиям</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16'00“</t>
+  </si>
+  <si>
+    <t xml:space="preserve">index.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В index.php для подписки сделать отдельный контроллер (не index)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17'00“</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сейчас:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$router-&gt;post('',      [SiteController::class, 'index']); // Для подписки на рассылку</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Это переход </t>
+  </si>
+  <si>
+    <t xml:space="preserve">вообще есть:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$router-&gt;post('subscription', [UserController::class, 'subscription']); // Подписка на рассылку</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Комментарии лучше не писать: значит код написан не явно и непонятно.
+Писать только для объяснения сложной бизнес-логики</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17'20“</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Для get и post лучше использовать разные методы, если они выполняют разные действия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">надо:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">$router-&gt;post('',      [SiteController::class, '</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">addSubscribe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">']); // Для подписки на рассылку</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">18'50“</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use SplFileInfo — без слеша впереди (?)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20'15“</t>
   </si>
   <si>
     <t xml:space="preserve">Итого:</t>
   </si>
   <si>
-    <t xml:space="preserve">Вынести валидацию и авторизация наружу…</t>
+    <t xml:space="preserve">Вынести редирект в AbstractController…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">М.б. убрать redirect() в Helper и сделать его static?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Везде header() заменить на redirect(), т. к. в нем есть die()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сайт</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - отнаследовать ArticleController и др. от AbstractPrivateController </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Админка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вынести авторизацию в AbstractPrivateController…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проблема: в ArticleController::article($id) — не выводит статью неавторизованному пользователю — предлагает залогиниться. Неавториз-й п-ль не может только добавлять комментарии.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AbstractPrivateController имеет смысл только для ЛК или админки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArticleController :: article($id)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вынести валидацию  в App/Validator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сделать Классы и Методы для всех случаев валидации.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вынести валидацию  в ArticleValidator для комментов к статье(?)…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">М.б. в CommentValidator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вынести обработку комметариев в CommentController</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВОПРОСЫ: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Если в AbstractPrivateController сделать для неавторизованного пользователя редирект на страницу авторизации, то он просто не сможет посмотреть статью.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Из задания: «</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">неавторизованному при попытке добавить комментарий должно быть показано сообщение об ошибке и предложение авторизоваться»</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Надо ли заменить использование в вёрстке переменных сессии (типа $_SESSION['user']['id']) на передачу туда объекта Users (будет $user→id)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сейчас везде используется $_SESSION['user']['…']</t>
   </si>
 </sst>
 </file>
@@ -158,7 +747,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="[$-419]DD/MM/YYYY"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -229,13 +818,80 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
       <color rgb="FFC9211E"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <i val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -252,6 +908,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81D41A"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF4000"/>
+        <bgColor rgb="FFC9211E"/>
       </patternFill>
     </fill>
   </fills>
@@ -303,7 +971,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="57">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -360,6 +1028,14 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -376,11 +1052,151 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -437,10 +1253,10 @@
       <rgbColor rgb="FFFFDE59"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF81D41A"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFFF4000"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
@@ -461,15 +1277,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E120"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B81" activeCellId="0" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="83.71"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="68.66"/>
@@ -553,113 +1369,783 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="14" t="s">
+        <v>15</v>
+      </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="D9" s="15" t="n">
+        <v>44740</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="0"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="D12" s="15" t="n">
+        <v>44740</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="16" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="17" t="s">
         <v>23</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="18" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>27</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="21"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="B16" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="D16" s="15" t="n">
+        <v>44740</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="14" t="s">
+        <v>34</v>
+      </c>
       <c r="B18" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="D18" s="15" t="n">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="15" t="n">
+        <v>44741</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="1" t="s">
-        <v>34</v>
+      <c r="A24" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>44</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>41</v>
+      <c r="A26" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="15" t="n">
+        <v>44741</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="31"/>
+      <c r="B28" s="32"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="15" t="n">
+        <v>44741</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="15" t="n">
+        <v>44741</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="10"/>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="15" t="n">
+        <v>44741</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="36"/>
+      <c r="C40" s="10"/>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" s="15" t="n">
+        <v>44741</v>
+      </c>
+      <c r="E41" s="0"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E47" s="37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E48" s="36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B50" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="E50" s="39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D51" s="15" t="n">
+        <v>44741</v>
+      </c>
+      <c r="E51" s="40"/>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D52" s="15" t="n">
+        <v>44741</v>
+      </c>
+      <c r="E52" s="40"/>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D53" s="13" t="n">
+        <v>44741</v>
+      </c>
+      <c r="E53" s="40"/>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D54" s="13" t="n">
+        <v>44741</v>
+      </c>
+      <c r="E54" s="40"/>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D55" s="13" t="n">
+        <v>44741</v>
+      </c>
+      <c r="E55" s="40"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="19"/>
+      <c r="B64" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="C64" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="B69" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E69" s="0"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="35"/>
+      <c r="C72" s="10"/>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="19"/>
+      <c r="B75" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B77" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="78" s="45" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="B78" s="45" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="B81" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="B86" s="48"/>
+      <c r="C86" s="48"/>
+      <c r="D86" s="13" t="n">
+        <v>44740</v>
+      </c>
+      <c r="E86" s="48"/>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B89" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="D89" s="13" t="n">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D90" s="15" t="n">
+        <v>44740</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B94" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="C94" s="19"/>
+      <c r="D94" s="19"/>
+      <c r="E94" s="19"/>
+    </row>
+    <row r="95" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="28"/>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="28"/>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B98" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="C98" s="19"/>
+      <c r="D98" s="51" t="n">
+        <v>44740</v>
+      </c>
+      <c r="E98" s="19"/>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B99" s="30" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B103" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="C103" s="19"/>
+      <c r="D103" s="19"/>
+      <c r="E103" s="19"/>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B106" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C106" s="19"/>
+      <c r="D106" s="19"/>
+      <c r="E106" s="52" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="107" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B107" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="C107" s="19"/>
+      <c r="D107" s="19"/>
+      <c r="E107" s="17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="108" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="53"/>
+      <c r="B108" s="19"/>
+      <c r="C108" s="19"/>
+      <c r="D108" s="19"/>
+      <c r="E108" s="17"/>
+    </row>
+    <row r="109" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="53"/>
+      <c r="E109" s="54"/>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B110" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C110" s="19"/>
+      <c r="D110" s="19"/>
+      <c r="E110" s="19"/>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="B115" s="56"/>
+    </row>
+    <row r="116" customFormat="false" ht="40.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="B116" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="E116" s="56" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="29" t="n">
+        <v>2</v>
+      </c>
+      <c r="B118" s="56" t="s">
+        <v>160</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="29" t="n">
+        <v>3</v>
+      </c>
+      <c r="B120" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Answer_3.xlsx
+++ b/Answer_3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="167">
   <si>
     <t xml:space="preserve">Михаил Букачук</t>
   </si>
@@ -277,6 +277,26 @@
       <rPr>
         <b val="true"/>
         <sz val="10"/>
+        <color rgb="FFC9211E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Users</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="204"/>
@@ -419,16 +439,25 @@
     <t xml:space="preserve">5.4</t>
   </si>
   <si>
+    <t xml:space="preserve">Comments  — проверить что возвращается — должен быть объект, а не массив</t>
+  </si>
+  <si>
     <t xml:space="preserve">5.5</t>
   </si>
   <si>
+    <t xml:space="preserve">  — проверить что возвращается — должен быть объект, а не массив</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
     <t xml:space="preserve">$errors = false; - а потом массив — это неправильно! Надо:  $errors = null;</t>
   </si>
   <si>
     <t xml:space="preserve">13'00“</t>
   </si>
   <si>
-    <t xml:space="preserve">Проверить везде</t>
+    <t xml:space="preserve">Проверить везде (в основном в контроллерах)</t>
   </si>
   <si>
     <t xml:space="preserve">approve/deny — в идеале сделать на каждый по контроллеру</t>
@@ -437,10 +466,10 @@
     <t xml:space="preserve">14'10“</t>
   </si>
   <si>
-    <t xml:space="preserve">т.е.методу?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> в идеале  создать CommentController с методами approve, deny, addComment</t>
+    <t xml:space="preserve">т.е.методу? - ДА</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> в идеале  создать CommentController с методами approveComment, denyComment, addComment</t>
   </si>
   <si>
     <t xml:space="preserve">14'25“</t>
@@ -450,6 +479,9 @@
   </si>
   <si>
     <t xml:space="preserve">14'35“</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Просмотреть и заменить, где надо — КОНТРОЛЛЕРЫ</t>
   </si>
   <si>
     <t xml:space="preserve">Как минимум сделать:</t>
@@ -640,6 +672,9 @@
   </si>
   <si>
     <t xml:space="preserve">18'50“</t>
+  </si>
+  <si>
+    <t xml:space="preserve">м.б. использовать то, что есть?</t>
   </si>
   <si>
     <t xml:space="preserve">use SplFileInfo — без слеша впереди (?)</t>
@@ -971,7 +1006,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1056,10 +1091,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1120,7 +1151,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1136,14 +1175,26 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1152,6 +1203,10 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1180,16 +1235,8 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1277,15 +1324,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E120"/>
+  <dimension ref="A1:E119"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B81" activeCellId="0" sqref="B81"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E81" activeCellId="0" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="83.71"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="68.66"/>
@@ -1430,9 +1477,6 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="21"/>
-    </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="14" t="s">
         <v>29</v>
@@ -1482,12 +1526,12 @@
       <c r="D20" s="15" t="n">
         <v>44741</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="21" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="22" t="s">
         <v>41</v>
       </c>
       <c r="C22" s="10" t="s">
@@ -1495,24 +1539,24 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="24" t="s">
         <v>44</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="26" t="s">
+      <c r="E24" s="25" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="27" t="s">
         <v>47</v>
       </c>
       <c r="E25" s="3" t="s">
@@ -1520,18 +1564,18 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="29" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="31" t="s">
         <v>52</v>
       </c>
       <c r="D27" s="15" t="n">
@@ -1539,22 +1583,22 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="31"/>
-      <c r="B28" s="32"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="31"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="32" t="s">
         <v>53</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E29" s="27" t="s">
+      <c r="E29" s="26" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="33" t="s">
         <v>56</v>
       </c>
       <c r="C31" s="10" t="s">
@@ -1562,7 +1606,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="22" t="s">
         <v>58</v>
       </c>
       <c r="C33" s="10" t="s">
@@ -1573,7 +1617,7 @@
       <c r="A35" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="28" t="s">
         <v>61</v>
       </c>
       <c r="C35" s="10" t="s">
@@ -1609,7 +1653,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="35" t="s">
+      <c r="B38" s="34" t="s">
         <v>69</v>
       </c>
       <c r="C38" s="10"/>
@@ -1618,7 +1662,7 @@
       <c r="A39" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B39" s="36" t="s">
+      <c r="B39" s="35" t="s">
         <v>71</v>
       </c>
       <c r="C39" s="10" t="s">
@@ -1629,7 +1673,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="36"/>
+      <c r="B40" s="35"/>
       <c r="C40" s="10"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1647,508 +1691,547 @@
       </c>
       <c r="E41" s="0"/>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="35" t="s">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C43" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="19"/>
+      <c r="B45" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45" s="37" t="n">
+        <v>44742</v>
+      </c>
+      <c r="E45" s="38" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E46" s="35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E47" s="37" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="E48" s="36" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="E48" s="40" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="14" t="s">
+        <v>89</v>
+      </c>
       <c r="B49" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B50" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="E50" s="39" t="s">
-        <v>88</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49" s="15" t="n">
+        <v>44741</v>
+      </c>
+      <c r="E49" s="41"/>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D50" s="15" t="n">
+        <v>44741</v>
+      </c>
+      <c r="E50" s="41"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="14" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>91</v>
       </c>
       <c r="D51" s="15" t="n">
-        <v>44741</v>
-      </c>
-      <c r="E51" s="40"/>
+        <v>44742</v>
+      </c>
+      <c r="E51" s="41"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="14" t="s">
-        <v>92</v>
+      <c r="A52" s="12" t="s">
+        <v>96</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D52" s="15" t="n">
-        <v>44741</v>
-      </c>
-      <c r="E52" s="40"/>
+      <c r="D52" s="13" t="n">
+        <v>44742</v>
+      </c>
+      <c r="E52" s="41"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="12" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>91</v>
       </c>
       <c r="D53" s="13" t="n">
-        <v>44741</v>
-      </c>
-      <c r="E53" s="40"/>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D54" s="13" t="n">
-        <v>44741</v>
-      </c>
-      <c r="E54" s="40"/>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D55" s="13" t="n">
-        <v>44741</v>
-      </c>
-      <c r="E55" s="40"/>
+        <v>44742</v>
+      </c>
+      <c r="E53" s="41"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="A58" s="42" t="n">
+        <v>7</v>
+      </c>
+      <c r="B58" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="42"/>
+      <c r="B59" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="C59" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="D59" s="37" t="n">
+        <v>44742</v>
+      </c>
+      <c r="E59" s="19"/>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="44"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="45"/>
+      <c r="E60" s="19"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="19"/>
-      <c r="B64" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="C64" s="42" t="s">
+      <c r="B61" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
+      <c r="C61" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="D61" s="19"/>
+      <c r="E61" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="19"/>
+      <c r="B63" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="C63" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="1" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="35" t="s">
-        <v>112</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="B68" s="34" t="s">
+        <v>119</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="B69" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="E69" s="0"/>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
+      </c>
+      <c r="D68" s="15" t="n">
+        <v>44742</v>
+      </c>
+      <c r="E68" s="0"/>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D69" s="15" t="n">
+        <v>44742</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>119</v>
-      </c>
+      <c r="B71" s="34"/>
+      <c r="C71" s="10"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="35"/>
-      <c r="C72" s="10"/>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="19"/>
-      <c r="B75" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="19"/>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C76" s="10" t="s">
+      <c r="B72" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="29" t="s">
+      <c r="C72" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B77" s="30" t="s">
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="19"/>
+      <c r="B74" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="78" s="45" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="44" t="s">
+      <c r="C75" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B78" s="45" t="s">
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="28" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="79" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="46" t="s">
+      <c r="B76" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="E76" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="1" t="s">
+    <row r="77" s="50" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="48" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="29" t="s">
+      <c r="B77" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="B81" s="30" t="s">
+    </row>
+    <row r="78" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C78" s="10" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="1" t="s">
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C84" s="10" t="s">
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="28" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="47" t="s">
+      <c r="B80" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="B86" s="48"/>
-      <c r="C86" s="48"/>
-      <c r="D86" s="13" t="n">
+      <c r="C80" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="B85" s="53"/>
+      <c r="C85" s="53"/>
+      <c r="D85" s="13" t="n">
         <v>44740</v>
       </c>
-      <c r="E86" s="48"/>
-    </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="8" t="n">
+      <c r="E85" s="53"/>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>140</v>
+      <c r="B86" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="D88" s="13" t="n">
+        <v>44740</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B89" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="D89" s="13" t="n">
+      <c r="A89" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D89" s="15" t="n">
         <v>44740</v>
       </c>
-    </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="14" t="s">
-        <v>15</v>
+      <c r="E89" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D90" s="15" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B93" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="C93" s="19"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="19"/>
+    </row>
+    <row r="94" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="27"/>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="27"/>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B97" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="C97" s="19"/>
+      <c r="D97" s="56" t="n">
         <v>44740</v>
       </c>
-      <c r="E90" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B94" s="50" t="s">
-        <v>145</v>
-      </c>
-      <c r="C94" s="19"/>
-      <c r="D94" s="19"/>
-      <c r="E94" s="19"/>
-    </row>
-    <row r="95" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="28"/>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="28"/>
-    </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E97" s="19"/>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B98" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="C98" s="19"/>
-      <c r="D98" s="51" t="n">
-        <v>44740</v>
-      </c>
-      <c r="E98" s="19"/>
-    </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B98" s="29" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B102" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="B99" s="30" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="B103" s="50" t="s">
-        <v>144</v>
-      </c>
-      <c r="C103" s="19"/>
-      <c r="D103" s="19"/>
-      <c r="E103" s="19"/>
+      <c r="C102" s="19"/>
+      <c r="D102" s="19"/>
+      <c r="E102" s="19"/>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B105" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C105" s="19"/>
+      <c r="D105" s="19"/>
+      <c r="E105" s="43" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="8" t="s">
-        <v>60</v>
+      <c r="A106" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C106" s="19"/>
       <c r="D106" s="19"/>
-      <c r="E106" s="52" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="107" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B107" s="19" t="s">
-        <v>154</v>
-      </c>
+      <c r="E106" s="17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="57"/>
+      <c r="B107" s="19"/>
       <c r="C107" s="19"/>
       <c r="D107" s="19"/>
-      <c r="E107" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="108" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="53"/>
-      <c r="B108" s="19"/>
-      <c r="C108" s="19"/>
-      <c r="D108" s="19"/>
-      <c r="E108" s="17"/>
-    </row>
-    <row r="109" s="21" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="53"/>
-      <c r="E109" s="54"/>
-    </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="8" t="s">
+      <c r="E107" s="17"/>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="57"/>
+      <c r="E108" s="26"/>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B110" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="C110" s="19"/>
-      <c r="D110" s="19"/>
-      <c r="E110" s="19"/>
-    </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="55" t="s">
-        <v>157</v>
-      </c>
-      <c r="B115" s="56"/>
-    </row>
-    <row r="116" customFormat="false" ht="40.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="29" t="n">
+      <c r="B109" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C109" s="19"/>
+      <c r="D109" s="19"/>
+      <c r="E109" s="19"/>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="B114" s="59"/>
+    </row>
+    <row r="115" customFormat="false" ht="40.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="B116" s="56" t="s">
-        <v>158</v>
-      </c>
-      <c r="E116" s="56" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="29" t="n">
+      <c r="B115" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="E115" s="59" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="B118" s="56" t="s">
-        <v>160</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="29" t="n">
+      <c r="B117" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="28" t="n">
         <v>3</v>
       </c>
-      <c r="B120" s="35" t="s">
+      <c r="B119" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="C120" s="10" t="s">
+      <c r="C119" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E120" s="1" t="s">
+      <c r="E119" s="1" t="s">
         <v>78</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A58:A59"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Answer_3.xlsx
+++ b/Answer_3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="205">
   <si>
     <t xml:space="preserve">Михаил Букачук</t>
   </si>
@@ -619,7 +619,7 @@
     <t xml:space="preserve">$router-&gt;post('',      [SiteController::class, 'index']); // Для подписки на рассылку</t>
   </si>
   <si>
-    <t xml:space="preserve">Это переход </t>
+    <t xml:space="preserve">Это переход, если нет авторизации и подписка, если польз-ль авторизован</t>
   </si>
   <si>
     <t xml:space="preserve">вообще есть:</t>
@@ -638,43 +638,13 @@
     <t xml:space="preserve">Для get и post лучше использовать разные методы, если они выполняют разные действия</t>
   </si>
   <si>
-    <t xml:space="preserve">надо:</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">$router-&gt;post('',      [SiteController::class, '</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">addSubscribe</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">']); // Для подписки на рассылку</t>
-    </r>
+    <t xml:space="preserve">$router-&gt;post('',      [UserController::class, 'subscription']); // Подписка на рассылку</t>
   </si>
   <si>
     <t xml:space="preserve">18'50“</t>
   </si>
   <si>
-    <t xml:space="preserve">м.б. использовать то, что есть?</t>
+    <t xml:space="preserve">м.б. использовать то, что есть? - да</t>
   </si>
   <si>
     <t xml:space="preserve">use SplFileInfo — без слеша впереди (?)</t>
@@ -686,10 +656,10 @@
     <t xml:space="preserve">Итого:</t>
   </si>
   <si>
-    <t xml:space="preserve">Вынести редирект в AbstractController…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">М.б. убрать redirect() в Helper и сделать его static?</t>
+    <t xml:space="preserve">Вынести редирект и $user в AbstractController…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">М.б. сделать redirect() static?</t>
   </si>
   <si>
     <t xml:space="preserve">Везде header() заменить на redirect(), т. к. в нем есть die()</t>
@@ -698,9 +668,6 @@
     <t xml:space="preserve">Сайт</t>
   </si>
   <si>
-    <t xml:space="preserve"> - отнаследовать ArticleController и др. от AbstractPrivateController </t>
-  </si>
-  <si>
     <t xml:space="preserve">Админка</t>
   </si>
   <si>
@@ -719,7 +686,85 @@
     <t xml:space="preserve">3.1.1</t>
   </si>
   <si>
-    <t xml:space="preserve">ArticleController :: article($id)</t>
+    <t xml:space="preserve">class ArticleController extends AbstractController </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Для всех пользователей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::  showArticle(int $id): View</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:: showArticlesByMethod(): View</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class CommentController extends AbstractPrivateController </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Только для авторизованных пользователей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::addComment(int $id)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::approveComment(int $articleId, int $commentId)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::denyComment(int $articleId, int $commentId)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class SiteController extends AbstractController </t>
+  </si>
+  <si>
+    <t xml:space="preserve">::index(): View</t>
+  </si>
+  <si>
+    <t xml:space="preserve">М.б.убрать вывод пагинации в метод(pattern, Model::class) + см.админку</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::about(): View</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::contacts(): View</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:: rules(): View</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class PostController — без изменений</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Для всех пользователей — вывод данных рассылки.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class UserController extends AbstractController </t>
+  </si>
+  <si>
+    <t xml:space="preserve">:: login(): View</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ убрать валидацию</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:: exit() — без изменений</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::unsubscribe(): View</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::subscription(): View</t>
   </si>
   <si>
     <t xml:space="preserve">3.2</t>
@@ -734,10 +779,52 @@
     <t xml:space="preserve">Вынести валидацию  в ArticleValidator для комментов к статье(?)…</t>
   </si>
   <si>
-    <t xml:space="preserve">М.б. в CommentValidator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вынести обработку комметариев в CommentController</t>
+    <t xml:space="preserve">М.б. в CommentValidator или сделать класс Validator, а в нем методы на каждый случай: commentTextValidate() и т. п.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вынести обработку комментариев в CommentController</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Заменить использование в вёрстке переменных сессии (типа $_SESSION['user']['id']) на передачу туда объекта Users (будет $user→id)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - article.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - homepage.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - post.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">— без изменений</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - unsubscribe.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">include 'errors/errors-list.php'; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - subscription.php</t>
   </si>
   <si>
     <t xml:space="preserve">ВОПРОСЫ: </t>
@@ -782,7 +869,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="[$-419]DD/MM/YYYY"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -919,6 +1006,13 @@
       <charset val="204"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFFF4000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -926,7 +1020,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -957,6 +1051,18 @@
         <bgColor rgb="FFC9211E"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF729FCF"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF972F"/>
+        <bgColor rgb="FFFF8080"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
@@ -1006,7 +1112,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="66">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1215,6 +1321,14 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1235,16 +1349,32 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1274,7 +1404,7 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF729FCF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
@@ -1302,7 +1432,7 @@
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF81D41A"/>
       <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF972F"/>
       <rgbColor rgb="FFFF4000"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
@@ -1324,10 +1454,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E119"/>
+  <dimension ref="A1:E147"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E81" activeCellId="0" sqref="E81"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B119" activeCellId="0" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1972,23 +2102,29 @@
         <v>128</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="28" t="s">
         <v>129</v>
       </c>
       <c r="B76" s="29" t="s">
         <v>130</v>
       </c>
+      <c r="D76" s="15" t="n">
+        <v>44743</v>
+      </c>
       <c r="E76" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="77" s="50" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" s="50" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="48" t="s">
         <v>132</v>
       </c>
       <c r="B77" s="49" t="s">
         <v>133</v>
+      </c>
+      <c r="D77" s="15" t="n">
+        <v>44743</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1999,61 +2135,67 @@
         <v>135</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="28" t="s">
+      <c r="D79" s="15" t="n">
+        <v>44743</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B80" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="B80" s="29" t="s">
+      <c r="C80" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="D80" s="15" t="n">
+        <v>44743</v>
+      </c>
+      <c r="E80" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C83" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="C83" s="10" t="s">
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="54" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="B85" s="53"/>
-      <c r="C85" s="53"/>
+      <c r="B85" s="55"/>
+      <c r="C85" s="55"/>
       <c r="D85" s="13" t="n">
         <v>44740</v>
       </c>
-      <c r="E85" s="53"/>
+      <c r="E85" s="55"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="8" t="n">
         <v>1</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E86" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B88" s="54" t="s">
-        <v>146</v>
+      <c r="B88" s="56" t="s">
+        <v>145</v>
       </c>
       <c r="D88" s="13" t="n">
         <v>44740</v>
@@ -2064,13 +2206,10 @@
         <v>15</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D89" s="15" t="n">
         <v>44740</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2078,15 +2217,15 @@
         <v>19</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B93" s="55" t="s">
-        <v>150</v>
+      <c r="B93" s="57" t="s">
+        <v>148</v>
       </c>
       <c r="C93" s="19"/>
       <c r="D93" s="19"/>
@@ -2094,10 +2233,10 @@
     </row>
     <row r="94" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="27" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2108,123 +2247,390 @@
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B97" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="C97" s="19"/>
+      <c r="D97" s="58" t="n">
+        <v>44740</v>
+      </c>
+      <c r="E97" s="19"/>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B98" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="B97" s="55" t="s">
+      <c r="D98" s="15" t="n">
+        <v>44741</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D99" s="15" t="n">
+        <v>44742</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B102" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="D102" s="15" t="n">
+        <v>44742</v>
+      </c>
+      <c r="E102" s="59" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D103" s="15" t="n">
+        <v>44742</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D104" s="15" t="n">
+        <v>44742</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D105" s="15" t="n">
+        <v>44742</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B107" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="D107" s="15" t="n">
+        <v>44743</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B108" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D108" s="15" t="n">
+        <v>44743</v>
+      </c>
+      <c r="E108" s="60" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D109" s="15" t="n">
+        <v>44743</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D110" s="15" t="n">
+        <v>44743</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D111" s="15" t="n">
+        <v>44743</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="61" t="s">
+        <v>170</v>
+      </c>
+      <c r="B113" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="D113" s="62" t="n">
+        <v>44743</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="B115" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="D115" s="13" t="n">
+        <v>44743</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B116" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D116" s="15" t="n">
+        <v>44743</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B117" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D117" s="62" t="n">
+        <v>44743</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B118" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D118" s="15" t="n">
+        <v>44743</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B119" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D119" s="13" t="n">
+        <v>44743</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D120" s="13"/>
+    </row>
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D121" s="13"/>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B124" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="C97" s="19"/>
-      <c r="D97" s="56" t="n">
-        <v>44740</v>
-      </c>
-      <c r="E97" s="19"/>
-    </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="B98" s="29" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="B102" s="55" t="s">
-        <v>149</v>
-      </c>
-      <c r="C102" s="19"/>
-      <c r="D102" s="19"/>
-      <c r="E102" s="19"/>
-    </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="8" t="s">
+      <c r="C124" s="19"/>
+      <c r="D124" s="19"/>
+      <c r="E124" s="59" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B105" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="C105" s="19"/>
-      <c r="D105" s="19"/>
-      <c r="E105" s="43" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="12" t="s">
+      <c r="B127" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="C127" s="19"/>
+      <c r="D127" s="19"/>
+      <c r="E127" s="43" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B106" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="C106" s="19"/>
-      <c r="D106" s="19"/>
-      <c r="E106" s="17" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="57"/>
-      <c r="B107" s="19"/>
-      <c r="C107" s="19"/>
-      <c r="D107" s="19"/>
-      <c r="E107" s="17"/>
-    </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="57"/>
-      <c r="E108" s="26"/>
-    </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="8" t="s">
+      <c r="B128" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C128" s="19"/>
+      <c r="D128" s="63" t="n">
+        <v>44742</v>
+      </c>
+      <c r="E128" s="18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="64"/>
+      <c r="B129" s="19"/>
+      <c r="C129" s="19"/>
+      <c r="D129" s="19"/>
+      <c r="E129" s="17"/>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="64"/>
+      <c r="E130" s="26"/>
+    </row>
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="B109" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="C109" s="19"/>
-      <c r="D109" s="19"/>
-      <c r="E109" s="19"/>
-    </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="58" t="s">
-        <v>162</v>
-      </c>
-      <c r="B114" s="59"/>
-    </row>
-    <row r="115" customFormat="false" ht="40.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="28" t="n">
+      <c r="B131" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="C131" s="19"/>
+      <c r="D131" s="15" t="n">
+        <v>44742</v>
+      </c>
+      <c r="E131" s="19"/>
+    </row>
+    <row r="133" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D133" s="13" t="n">
+        <v>44743</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D134" s="15" t="n">
+        <v>44743</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D135" s="15" t="n">
+        <v>44743</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="61" t="s">
+        <v>191</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D136" s="62" t="n">
+        <v>44743</v>
+      </c>
+      <c r="E136" s="35" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D137" s="15" t="n">
+        <v>44743</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D138" s="15" t="n">
+        <v>44743</v>
+      </c>
+      <c r="E138" s="29" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D139" s="13" t="n">
+        <v>44743</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="65" t="s">
+        <v>200</v>
+      </c>
+      <c r="B142" s="3"/>
+    </row>
+    <row r="143" customFormat="false" ht="40.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="B115" s="59" t="s">
-        <v>163</v>
-      </c>
-      <c r="E115" s="59" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="28" t="n">
+      <c r="B143" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="B117" s="59" t="s">
-        <v>165</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="28" t="n">
+      <c r="B145" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="28" t="n">
         <v>3</v>
       </c>
-      <c r="B119" s="34" t="s">
+      <c r="B147" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="C119" s="10" t="s">
+      <c r="C147" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E119" s="1" t="s">
+      <c r="E147" s="1" t="s">
         <v>78</v>
       </c>
     </row>

--- a/Answer_3.xlsx
+++ b/Answer_3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="221">
   <si>
     <t xml:space="preserve">Михаил Букачук</t>
   </si>
@@ -722,18 +722,30 @@
     <t xml:space="preserve">class SiteController extends AbstractController </t>
   </si>
   <si>
+    <t xml:space="preserve">3.1.3.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">::index(): View</t>
   </si>
   <si>
-    <t xml:space="preserve">М.б.убрать вывод пагинации в метод(pattern, Model::class) + см.админку</t>
+    <t xml:space="preserve">М.б.убрать вывод пагинации в метод getPagination(pattern, Model::class) + см.админку</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1.3.2</t>
   </si>
   <si>
     <t xml:space="preserve">::about(): View</t>
   </si>
   <si>
+    <t xml:space="preserve">3.1.3.3</t>
+  </si>
+  <si>
     <t xml:space="preserve">::contacts(): View</t>
   </si>
   <si>
+    <t xml:space="preserve">3.1.3.4</t>
+  </si>
+  <si>
     <t xml:space="preserve">:: rules(): View</t>
   </si>
   <si>
@@ -752,21 +764,45 @@
     <t xml:space="preserve">class UserController extends AbstractController </t>
   </si>
   <si>
+    <t xml:space="preserve">3.1.5.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">:: login(): View</t>
   </si>
   <si>
     <t xml:space="preserve">+ убрать валидацию</t>
   </si>
   <si>
+    <t xml:space="preserve">3.1.5.2</t>
+  </si>
+  <si>
     <t xml:space="preserve">:: exit() — без изменений</t>
   </si>
   <si>
+    <t xml:space="preserve">3.1.5.3</t>
+  </si>
+  <si>
     <t xml:space="preserve">::unsubscribe(): View</t>
   </si>
   <si>
+    <t xml:space="preserve">3.1.5.4</t>
+  </si>
+  <si>
     <t xml:space="preserve">::subscription(): View</t>
   </si>
   <si>
+    <t xml:space="preserve">3.1.5.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::registration(): View</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1.5.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::lk(): View</t>
+  </si>
+  <si>
     <t xml:space="preserve">3.2</t>
   </si>
   <si>
@@ -812,19 +848,31 @@
     <t xml:space="preserve">6.4</t>
   </si>
   <si>
+    <t xml:space="preserve"> - unsubscribe.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">include 'errors/errors-list.php'; </t>
+  </si>
+  <si>
     <t xml:space="preserve">6.5</t>
   </si>
   <si>
-    <t xml:space="preserve"> - unsubscribe.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">include 'errors/errors-list.php'; </t>
+    <t xml:space="preserve"> - subscription.php</t>
   </si>
   <si>
     <t xml:space="preserve">6.6</t>
   </si>
   <si>
-    <t xml:space="preserve"> - subscription.php</t>
+    <t xml:space="preserve"> - registration.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - lk.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$_SESSION[„user“] заменить на $this→user</t>
   </si>
   <si>
     <t xml:space="preserve">ВОПРОСЫ: </t>
@@ -1354,7 +1402,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1454,10 +1502,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E147"/>
+  <dimension ref="A1:E149"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B119" activeCellId="0" sqref="B119"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A124" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E140" activeCellId="0" sqref="E140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2337,36 +2385,48 @@
         <v>154</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="14" t="s">
+        <v>165</v>
+      </c>
       <c r="B108" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D108" s="15" t="n">
         <v>44743</v>
       </c>
       <c r="E108" s="60" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="14" t="s">
+        <v>168</v>
+      </c>
       <c r="B109" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D109" s="15" t="n">
         <v>44743</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="14" t="s">
+        <v>170</v>
+      </c>
       <c r="B110" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D110" s="15" t="n">
         <v>44743</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="14" t="s">
+        <v>172</v>
+      </c>
       <c r="B111" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D111" s="15" t="n">
         <v>44743</v>
@@ -2374,24 +2434,24 @@
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="61" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B113" s="29" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D113" s="62" t="n">
         <v>44743</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="12" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B115" s="29" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D115" s="13" t="n">
         <v>44743</v>
@@ -2401,52 +2461,89 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="14" t="s">
+        <v>179</v>
+      </c>
       <c r="B116" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D116" s="15" t="n">
         <v>44743</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="14" t="s">
+        <v>182</v>
+      </c>
       <c r="B117" s="1" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="D117" s="62" t="n">
         <v>44743</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="14" t="s">
+        <v>184</v>
+      </c>
       <c r="B118" s="1" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D118" s="15" t="n">
         <v>44743</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="14" t="s">
+        <v>186</v>
+      </c>
       <c r="B119" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D119" s="13" t="n">
-        <v>44743</v>
+        <v>187</v>
+      </c>
+      <c r="D119" s="15" t="n">
+        <v>44748</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D120" s="13"/>
+      <c r="A120" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D120" s="15" t="n">
+        <v>44748</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D121" s="13"/>
+      <c r="A121" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D121" s="13" t="n">
+        <v>44748</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="12" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="B124" s="57" t="s">
         <v>147</v>
@@ -2462,12 +2559,12 @@
         <v>60</v>
       </c>
       <c r="B127" s="19" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="C127" s="19"/>
       <c r="D127" s="19"/>
       <c r="E127" s="43" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2475,14 +2572,14 @@
         <v>63</v>
       </c>
       <c r="B128" s="19" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="C128" s="19"/>
       <c r="D128" s="63" t="n">
         <v>44742</v>
       </c>
       <c r="E128" s="18" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2501,7 +2598,7 @@
         <v>86</v>
       </c>
       <c r="B131" s="19" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="C131" s="19"/>
       <c r="D131" s="15" t="n">
@@ -2514,7 +2611,7 @@
         <v>100</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="D133" s="13" t="n">
         <v>44743</v>
@@ -2522,10 +2619,10 @@
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="14" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="D134" s="15" t="n">
         <v>44743</v>
@@ -2533,10 +2630,10 @@
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="14" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="D135" s="15" t="n">
         <v>44743</v>
@@ -2544,93 +2641,110 @@
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="61" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="D136" s="62" t="n">
         <v>44743</v>
       </c>
       <c r="E136" s="35" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="14" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="D137" s="15" t="n">
         <v>44743</v>
       </c>
+      <c r="E137" s="29" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="14" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="D138" s="15" t="n">
-        <v>44743</v>
+        <v>44748</v>
       </c>
       <c r="E138" s="29" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="12" t="s">
-        <v>198</v>
+      <c r="A139" s="14" t="s">
+        <v>211</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D139" s="13" t="n">
-        <v>44743</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="65" t="s">
-        <v>200</v>
-      </c>
-      <c r="B142" s="3"/>
-    </row>
-    <row r="143" customFormat="false" ht="40.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="28" t="n">
+        <v>212</v>
+      </c>
+      <c r="D139" s="15" t="n">
+        <v>44748</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D140" s="13" t="n">
+        <v>44748</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="65" t="s">
+        <v>216</v>
+      </c>
+      <c r="B144" s="3"/>
+    </row>
+    <row r="145" customFormat="false" ht="40.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="B143" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="E143" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="28" t="n">
+      <c r="B145" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="B145" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="28" t="n">
+      <c r="B147" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="28" t="n">
         <v>3</v>
       </c>
-      <c r="B147" s="34" t="s">
+      <c r="B149" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="C147" s="10" t="s">
+      <c r="C149" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E147" s="1" t="s">
+      <c r="E149" s="1" t="s">
         <v>78</v>
       </c>
     </row>

--- a/Answer_3.xlsx
+++ b/Answer_3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="233">
   <si>
     <t xml:space="preserve">Михаил Букачук</t>
   </si>
@@ -803,6 +803,24 @@
     <t xml:space="preserve">::lk(): View</t>
   </si>
   <si>
+    <t xml:space="preserve">3.1.5.6.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Подписка </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1.5.6.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO: загрузка файла на сервер - убрать в метод? - См. Админку, чтобы использовать один и тот же метод. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1.5.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::password(): View</t>
+  </si>
+  <si>
     <t xml:space="preserve">3.2</t>
   </si>
   <si>
@@ -873,6 +891,25 @@
   </si>
   <si>
     <t xml:space="preserve">$_SESSION[„user“] заменить на $this→user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - password.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$_SESSION[„user“] заменить на $this→user
+$errors → isset($errors)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вывод ошибок в вёрстке сделать через метод, куда передавать массив с ошибками.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Helper::getErrors($errors['user']) </t>
   </si>
   <si>
     <t xml:space="preserve">ВОПРОСЫ: </t>
@@ -1160,7 +1197,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1410,6 +1447,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1502,10 +1547,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E149"/>
+  <dimension ref="A1:E157"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A124" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E140" activeCellId="0" sqref="E140"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A121" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A146" activeCellId="0" sqref="A146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2528,223 +2573,293 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="12" t="s">
+      <c r="A121" s="14" t="s">
         <v>190</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D121" s="13" t="n">
-        <v>44748</v>
+      <c r="D121" s="15" t="n">
+        <v>44750</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D122" s="15" t="n">
+        <v>44750</v>
+      </c>
+      <c r="E122" s="29" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="63" t="s">
+        <v>194</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D123" s="64" t="n">
+        <v>44750</v>
+      </c>
+      <c r="E123" s="29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="B124" s="57" t="s">
+        <v>196</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D124" s="13" t="n">
+        <v>44750</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B129" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="C124" s="19"/>
-      <c r="D124" s="19"/>
-      <c r="E124" s="59" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B127" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="C127" s="19"/>
-      <c r="D127" s="19"/>
-      <c r="E127" s="43" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B128" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="C128" s="19"/>
-      <c r="D128" s="63" t="n">
-        <v>44742</v>
-      </c>
-      <c r="E128" s="18" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="64"/>
-      <c r="B129" s="19"/>
       <c r="C129" s="19"/>
       <c r="D129" s="19"/>
-      <c r="E129" s="17"/>
-    </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="64"/>
-      <c r="E130" s="26"/>
-    </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B131" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="C131" s="19"/>
-      <c r="D131" s="15" t="n">
-        <v>44742</v>
-      </c>
-      <c r="E131" s="19"/>
+      <c r="E129" s="59" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B132" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="C132" s="19"/>
+      <c r="D132" s="19"/>
+      <c r="E132" s="43" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="133" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B133" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="C133" s="19"/>
+      <c r="D133" s="65" t="n">
+        <v>44742</v>
+      </c>
+      <c r="E133" s="18" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="66"/>
+      <c r="B134" s="19"/>
+      <c r="C134" s="19"/>
+      <c r="D134" s="19"/>
+      <c r="E134" s="17"/>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="66"/>
+      <c r="E135" s="26"/>
+    </row>
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B136" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C136" s="19"/>
+      <c r="D136" s="15" t="n">
+        <v>44742</v>
+      </c>
+      <c r="E136" s="19"/>
+    </row>
+    <row r="138" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B133" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D133" s="13" t="n">
+      <c r="B138" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D138" s="13" t="n">
         <v>44743</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D134" s="15" t="n">
-        <v>44743</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D135" s="15" t="n">
-        <v>44743</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="61" t="s">
-        <v>203</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D136" s="62" t="n">
-        <v>44743</v>
-      </c>
-      <c r="E136" s="35" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D137" s="15" t="n">
-        <v>44743</v>
-      </c>
-      <c r="E137" s="29" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D138" s="15" t="n">
-        <v>44748</v>
-      </c>
-      <c r="E138" s="29" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D139" s="15" t="n">
+        <v>44743</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D140" s="15" t="n">
+        <v>44743</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="61" t="s">
+        <v>209</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D141" s="62" t="n">
+        <v>44743</v>
+      </c>
+      <c r="E141" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="B139" s="1" t="s">
+    </row>
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="D139" s="15" t="n">
+      <c r="B142" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D142" s="15" t="n">
+        <v>44743</v>
+      </c>
+      <c r="E142" s="29" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D143" s="15" t="n">
         <v>44748</v>
       </c>
-    </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="B140" s="1" t="s">
+      <c r="E143" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="D140" s="13" t="n">
+    </row>
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D144" s="15" t="n">
         <v>44748</v>
       </c>
-      <c r="E140" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="65" t="s">
-        <v>216</v>
-      </c>
-      <c r="B144" s="3"/>
-    </row>
-    <row r="145" customFormat="false" ht="40.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="28" t="n">
+    </row>
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D145" s="15" t="n">
+        <v>44750</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D146" s="13" t="n">
+        <v>44750</v>
+      </c>
+      <c r="E146" s="27" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D149" s="15" t="n">
+        <v>44750</v>
+      </c>
+      <c r="E149" s="29" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="67" t="s">
+        <v>228</v>
+      </c>
+      <c r="B152" s="3"/>
+    </row>
+    <row r="153" customFormat="false" ht="40.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="B145" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="E145" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="28" t="n">
+      <c r="B153" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="B147" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="28" t="n">
+      <c r="B155" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="28" t="n">
         <v>3</v>
       </c>
-      <c r="B149" s="34" t="s">
+      <c r="B157" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="C149" s="10" t="s">
+      <c r="C157" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E149" s="1" t="s">
+      <c r="E157" s="1" t="s">
         <v>78</v>
       </c>
     </row>

--- a/Answer_3.xlsx
+++ b/Answer_3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="258">
   <si>
     <t xml:space="preserve">Михаил Букачук</t>
   </si>
@@ -686,7 +686,7 @@
     <t xml:space="preserve">3.1.1</t>
   </si>
   <si>
-    <t xml:space="preserve">class ArticleController extends AbstractController </t>
+    <t xml:space="preserve">class App\Controllers\ArticleController extends AbstractController </t>
   </si>
   <si>
     <t xml:space="preserve">Для всех пользователей</t>
@@ -701,7 +701,7 @@
     <t xml:space="preserve">3.1.2</t>
   </si>
   <si>
-    <t xml:space="preserve">class CommentController extends AbstractPrivateController </t>
+    <t xml:space="preserve">class App\Controllers\CommentController extends AbstractPrivateController </t>
   </si>
   <si>
     <t xml:space="preserve">Только для авторизованных пользователей</t>
@@ -719,7 +719,7 @@
     <t xml:space="preserve">3.1.3</t>
   </si>
   <si>
-    <t xml:space="preserve">class SiteController extends AbstractController </t>
+    <t xml:space="preserve">class App\Controllers\SiteController extends AbstractController </t>
   </si>
   <si>
     <t xml:space="preserve">3.1.3.1</t>
@@ -752,7 +752,7 @@
     <t xml:space="preserve">3.1.4</t>
   </si>
   <si>
-    <t xml:space="preserve">class PostController — без изменений</t>
+    <t xml:space="preserve">class App\Controllers\PostController — без изменений</t>
   </si>
   <si>
     <t xml:space="preserve">Для всех пользователей — вывод данных рассылки.</t>
@@ -761,7 +761,7 @@
     <t xml:space="preserve">3.1.5</t>
   </si>
   <si>
-    <t xml:space="preserve">class UserController extends AbstractController </t>
+    <t xml:space="preserve">class App\Controllers\UserController extends AbstractController </t>
   </si>
   <si>
     <t xml:space="preserve">3.1.5.1</t>
@@ -824,6 +824,138 @@
     <t xml:space="preserve">3.2</t>
   </si>
   <si>
+    <t xml:space="preserve">Только для авторизованных пользователей и имеющих доступ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">class App\Controllers\Admin\UserController extends </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">AbstractPrivateController</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::admin(): AdminView</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$_SESSION[„user“] заменить на $this→user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::adminUsers(): AdminView</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - $_SESSION[„user“] заменить на $this→user</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - убрать валидацию</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UserValidator::adminUserValidate($userId, $role); </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - убрать пагинацию</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$this-&gt;getPaginationData(Users::class, AdminView::class, 'admin-users', '~admin-users/' . PAGINATION_PAGE . '([0-9]+)~'); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::adminSubscription(): AdminView</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UserValidator::adminUserSubscriptionValidate($userId, $subscription)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$this-&gt;getPaginationData(Users::class, AdminView::class, 'admin-subscription', '~admin-subscription/' . PAGINATION_PAGE . '([0-9]+)~'); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">class App\Controllers\Admin\SiteController extends </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">AbstractPrivateController</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::additionalSettings(): AdminView</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class SiteValidator::adminSettingsValidate(int $id, string $value)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">class App\Controllers\Admin\ArticleController extends </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">AbstractPrivateController</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::adminArticles(): AdminView</t>
+  </si>
+  <si>
     <t xml:space="preserve">Вынести валидацию  в App/Validator</t>
   </si>
   <si>
@@ -888,9 +1020,6 @@
   </si>
   <si>
     <t xml:space="preserve"> - lk.php</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$_SESSION[„user“] заменить на $this→user</t>
   </si>
   <si>
     <t xml:space="preserve">6.8</t>
@@ -954,7 +1083,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="[$-419]DD/MM/YYYY"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1098,6 +1227,14 @@
       <charset val="204"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFF4000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -1197,7 +1334,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="85">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1456,6 +1593,74 @@
     </xf>
     <xf numFmtId="166" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1547,10 +1752,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E157"/>
+  <dimension ref="A1:E191"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A121" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A146" activeCellId="0" sqref="A146"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A135" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B155" activeCellId="0" sqref="B155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2615,251 +2820,482 @@
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="12" t="s">
+      <c r="A124" s="14" t="s">
         <v>196</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D124" s="13" t="n">
+      <c r="D124" s="15" t="n">
         <v>44750</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="12" t="s">
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="B129" s="57" t="s">
+      <c r="B127" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="C129" s="19"/>
-      <c r="D129" s="19"/>
-      <c r="E129" s="59" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B132" s="19" t="s">
+      <c r="C127" s="19"/>
+      <c r="D127" s="13" t="n">
+        <v>44754</v>
+      </c>
+      <c r="E127" s="65" t="s">
         <v>199</v>
       </c>
-      <c r="C132" s="19"/>
-      <c r="D132" s="19"/>
-      <c r="E132" s="43" t="s">
+    </row>
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="14" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="133" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B133" s="19" t="s">
+      <c r="B128" s="66" t="s">
         <v>201</v>
       </c>
-      <c r="C133" s="19"/>
-      <c r="D133" s="65" t="n">
-        <v>44742</v>
-      </c>
-      <c r="E133" s="18" t="s">
+      <c r="C128" s="19"/>
+      <c r="D128" s="15" t="n">
+        <v>44754</v>
+      </c>
+      <c r="E128" s="67" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="129" s="73" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="68"/>
+      <c r="B129" s="69"/>
+      <c r="C129" s="70"/>
+      <c r="D129" s="71"/>
+      <c r="E129" s="72"/>
+    </row>
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="14" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="66"/>
-      <c r="B134" s="19"/>
-      <c r="C134" s="19"/>
-      <c r="D134" s="19"/>
-      <c r="E134" s="17"/>
-    </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="66"/>
-      <c r="E135" s="26"/>
-    </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B136" s="19" t="s">
+      <c r="B130" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C136" s="19"/>
-      <c r="D136" s="15" t="n">
-        <v>44742</v>
-      </c>
-      <c r="E136" s="19"/>
-    </row>
-    <row r="138" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="B138" s="3" t="s">
+      <c r="D130" s="15" t="n">
+        <v>44753</v>
+      </c>
+      <c r="E130" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D138" s="13" t="n">
-        <v>44743</v>
+    </row>
+    <row r="131" s="73" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="68"/>
+      <c r="D131" s="74"/>
+    </row>
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D132" s="15" t="n">
+        <v>44753</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B133" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D133" s="15" t="n">
+        <v>44753</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B134" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D134" s="15" t="n">
+        <v>44753</v>
+      </c>
+      <c r="E134" s="75" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B135" s="76" t="s">
+        <v>210</v>
+      </c>
+      <c r="D135" s="15" t="n">
+        <v>44754</v>
+      </c>
+      <c r="E135" s="77" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="136" s="73" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B136" s="78"/>
+      <c r="D136" s="74"/>
+      <c r="E136" s="79"/>
+    </row>
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D137" s="15" t="n">
+        <v>44754</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B138" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D138" s="15" t="n">
+        <v>44754</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="14" t="s">
-        <v>205</v>
-      </c>
       <c r="B139" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D139" s="15" t="n">
-        <v>44743</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>208</v>
+        <v>44754</v>
+      </c>
+      <c r="E139" s="75" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B140" s="76" t="s">
+        <v>210</v>
       </c>
       <c r="D140" s="15" t="n">
-        <v>44743</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="61" t="s">
-        <v>209</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D141" s="62" t="n">
-        <v>44743</v>
-      </c>
-      <c r="E141" s="35" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D142" s="15" t="n">
-        <v>44743</v>
-      </c>
-      <c r="E142" s="29" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="14" t="s">
+        <v>44754</v>
+      </c>
+      <c r="E140" s="77" t="s">
         <v>215</v>
       </c>
-      <c r="B143" s="1" t="s">
+    </row>
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="80" t="s">
         <v>216</v>
       </c>
-      <c r="D143" s="15" t="n">
-        <v>44748</v>
-      </c>
-      <c r="E143" s="29" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="14" t="s">
+      <c r="B144" s="66" t="s">
         <v>217</v>
       </c>
-      <c r="B144" s="1" t="s">
-        <v>218</v>
-      </c>
+      <c r="C144" s="19"/>
       <c r="D144" s="15" t="n">
-        <v>44748</v>
+        <v>44754</v>
+      </c>
+      <c r="E144" s="67" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="D145" s="15" t="n">
+        <v>44754</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B146" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D146" s="15" t="n">
+        <v>44754</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B147" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D147" s="15" t="n">
+        <v>44754</v>
+      </c>
+      <c r="E147" s="75" t="s">
         <v>220</v>
       </c>
-      <c r="D145" s="15" t="n">
+    </row>
+    <row r="148" s="73" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B148" s="78"/>
+      <c r="D148" s="74"/>
+      <c r="E148" s="79"/>
+    </row>
+    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="81" t="s">
+        <v>221</v>
+      </c>
+      <c r="B149" s="66" t="s">
+        <v>222</v>
+      </c>
+      <c r="C149" s="19"/>
+      <c r="D149" s="13" t="n">
+        <v>44754</v>
+      </c>
+      <c r="E149" s="67" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D150" s="13" t="n">
+        <v>44754</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B151" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D151" s="13" t="n">
+        <v>44754</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B152" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D152" s="13" t="n">
+        <v>44754</v>
+      </c>
+      <c r="E152" s="75"/>
+    </row>
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B153" s="76" t="s">
+        <v>210</v>
+      </c>
+      <c r="D153" s="13" t="n">
+        <v>44754</v>
+      </c>
+      <c r="E153" s="77"/>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B166" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="C166" s="19"/>
+      <c r="D166" s="19"/>
+      <c r="E166" s="43" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B167" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="C167" s="19"/>
+      <c r="D167" s="82" t="n">
+        <v>44742</v>
+      </c>
+      <c r="E167" s="18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="83"/>
+      <c r="B168" s="19"/>
+      <c r="C168" s="19"/>
+      <c r="D168" s="19"/>
+      <c r="E168" s="17"/>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="83"/>
+      <c r="E169" s="26"/>
+    </row>
+    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B170" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="C170" s="19"/>
+      <c r="D170" s="15" t="n">
+        <v>44742</v>
+      </c>
+      <c r="E170" s="19"/>
+    </row>
+    <row r="172" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D172" s="13" t="n">
+        <v>44743</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D173" s="15" t="n">
+        <v>44743</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D174" s="15" t="n">
+        <v>44743</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="61" t="s">
+        <v>235</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D175" s="62" t="n">
+        <v>44743</v>
+      </c>
+      <c r="E175" s="35" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D176" s="15" t="n">
+        <v>44743</v>
+      </c>
+      <c r="E176" s="29" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D177" s="15" t="n">
+        <v>44748</v>
+      </c>
+      <c r="E177" s="29" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D178" s="15" t="n">
+        <v>44748</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D179" s="15" t="n">
         <v>44750</v>
       </c>
-      <c r="E145" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D146" s="13" t="n">
+      <c r="E179" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D180" s="15" t="n">
         <v>44750</v>
       </c>
-      <c r="E146" s="27" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D149" s="15" t="n">
+      <c r="E180" s="27" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D183" s="15" t="n">
         <v>44750</v>
       </c>
-      <c r="E149" s="29" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="67" t="s">
-        <v>228</v>
-      </c>
-      <c r="B152" s="3"/>
-    </row>
-    <row r="153" customFormat="false" ht="40.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="28" t="n">
+      <c r="E183" s="29" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="84" t="s">
+        <v>253</v>
+      </c>
+      <c r="B186" s="3"/>
+    </row>
+    <row r="187" customFormat="false" ht="40.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="B153" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E153" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="28" t="n">
+      <c r="B187" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="B155" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="28" t="n">
+      <c r="B189" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="28" t="n">
         <v>3</v>
       </c>
-      <c r="B157" s="34" t="s">
+      <c r="B191" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="C157" s="10" t="s">
+      <c r="C191" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E157" s="1" t="s">
+      <c r="E191" s="1" t="s">
         <v>78</v>
       </c>
     </row>

--- a/Answer_3.xlsx
+++ b/Answer_3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="271">
   <si>
     <t xml:space="preserve">Михаил Букачук</t>
   </si>
@@ -956,13 +956,52 @@
     <t xml:space="preserve">::adminArticles(): AdminView</t>
   </si>
   <si>
+    <t xml:space="preserve">$this-&gt;getPaginationData(Articles::class, AdminView::class, 'admin-articles', '~admin-articles/' . PAGINATION_PAGE . '([0-9]+)~'); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::adminComments(): AdminView</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CommentValidator::approveValidate($id, $approve, $deny); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">$this-&gt;getPaginationData(Comments::class, AdminView::class, 'admin-comments', '~admin-comments/' . PAGINATION_PAGE . '([0-9]+)~'); </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.3.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::adminCMS(): AdminView</t>
+  </si>
+  <si>
+    <t xml:space="preserve">см.ЛК + п.3.1.5.6.2 — загрузка файла в отдельный метод</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - пересмотреть обработку формыъ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.3.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">::articleDelete(): AdminView</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пока только вывод страницы-сообщения об удалении статьи. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - вынести удаление статьи из adminCMS() в метод deleteArticle()</t>
+  </si>
+  <si>
     <t xml:space="preserve">Вынести валидацию  в App/Validator</t>
   </si>
   <si>
     <t xml:space="preserve">Сделать Классы и Методы для всех случаев валидации.</t>
   </si>
   <si>
-    <t xml:space="preserve">Вынести валидацию  в ArticleValidator для комментов к статье(?)…</t>
+    <t xml:space="preserve">Вынести валидацию  в CommentValidator для комментов к статье</t>
   </si>
   <si>
     <t xml:space="preserve">М.б. в CommentValidator или сделать класс Validator, а в нем методы на каждый случай: commentTextValidate() и т. п.</t>
@@ -1334,7 +1373,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="79">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1611,26 +1650,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1647,14 +1666,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1663,12 +1674,16 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1752,10 +1767,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E191"/>
+  <dimension ref="A1:E193"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A135" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B155" activeCellId="0" sqref="B155"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A149" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B163" activeCellId="0" sqref="B163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2863,37 +2878,38 @@
         <v>199</v>
       </c>
     </row>
-    <row r="129" s="73" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="68"/>
-      <c r="B129" s="69"/>
-      <c r="C129" s="70"/>
-      <c r="D129" s="71"/>
-      <c r="E129" s="72"/>
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D129" s="15" t="n">
+        <v>44753</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D130" s="15" t="n">
+      <c r="A130" s="68"/>
+      <c r="D130" s="69"/>
+    </row>
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D131" s="15" t="n">
         <v>44753</v>
       </c>
-      <c r="E130" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="131" s="73" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="68"/>
-      <c r="D131" s="74"/>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="14" t="s">
-        <v>205</v>
-      </c>
       <c r="B132" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D132" s="15" t="n">
         <v>44753</v>
@@ -2901,45 +2917,45 @@
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D133" s="15" t="n">
         <v>44753</v>
       </c>
-    </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B134" s="1" t="s">
-        <v>208</v>
+      <c r="E133" s="70" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B134" s="71" t="s">
+        <v>210</v>
       </c>
       <c r="D134" s="15" t="n">
-        <v>44753</v>
-      </c>
-      <c r="E134" s="75" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B135" s="76" t="s">
-        <v>210</v>
-      </c>
-      <c r="D135" s="15" t="n">
         <v>44754</v>
       </c>
-      <c r="E135" s="77" t="s">
+      <c r="E134" s="72" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="136" s="73" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B136" s="78"/>
-      <c r="D136" s="74"/>
-      <c r="E136" s="79"/>
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B135" s="71"/>
+      <c r="D135" s="69"/>
+      <c r="E135" s="60"/>
+    </row>
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D136" s="15" t="n">
+        <v>44754</v>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="14" t="s">
-        <v>212</v>
-      </c>
       <c r="B137" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D137" s="15" t="n">
         <v>44754</v>
@@ -2947,355 +2963,464 @@
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D138" s="15" t="n">
         <v>44754</v>
       </c>
-    </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B139" s="1" t="s">
-        <v>208</v>
+      <c r="E138" s="70" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B139" s="71" t="s">
+        <v>210</v>
       </c>
       <c r="D139" s="15" t="n">
         <v>44754</v>
       </c>
-      <c r="E139" s="75" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B140" s="76" t="s">
-        <v>210</v>
-      </c>
-      <c r="D140" s="15" t="n">
+      <c r="E139" s="72" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="73" t="s">
+        <v>216</v>
+      </c>
+      <c r="B141" s="66" t="s">
+        <v>217</v>
+      </c>
+      <c r="C141" s="19"/>
+      <c r="D141" s="15" t="n">
         <v>44754</v>
       </c>
-      <c r="E140" s="77" t="s">
-        <v>215</v>
+      <c r="E141" s="67" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D142" s="15" t="n">
+        <v>44754</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B143" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D143" s="15" t="n">
+        <v>44754</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="80" t="s">
-        <v>216</v>
-      </c>
-      <c r="B144" s="66" t="s">
-        <v>217</v>
-      </c>
-      <c r="C144" s="19"/>
+      <c r="B144" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="D144" s="15" t="n">
         <v>44754</v>
       </c>
-      <c r="E144" s="67" t="s">
+      <c r="E144" s="70" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B145" s="71"/>
+      <c r="D145" s="69"/>
+      <c r="E145" s="60"/>
+    </row>
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="74" t="s">
+        <v>221</v>
+      </c>
+      <c r="B146" s="66" t="s">
+        <v>222</v>
+      </c>
+      <c r="C146" s="19"/>
+      <c r="D146" s="13" t="n">
+        <v>44754</v>
+      </c>
+      <c r="E146" s="67" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D145" s="15" t="n">
-        <v>44754</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B146" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D146" s="15" t="n">
-        <v>44754</v>
-      </c>
-    </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="14" t="s">
+        <v>223</v>
+      </c>
       <c r="B147" s="1" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="D147" s="15" t="n">
         <v>44754</v>
       </c>
-      <c r="E147" s="75" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="148" s="73" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B148" s="78"/>
-      <c r="D148" s="74"/>
-      <c r="E148" s="79"/>
-    </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="81" t="s">
-        <v>221</v>
-      </c>
-      <c r="B149" s="66" t="s">
-        <v>222</v>
-      </c>
-      <c r="C149" s="19"/>
-      <c r="D149" s="13" t="n">
+    </row>
+    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B148" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D148" s="15" t="n">
         <v>44754</v>
       </c>
-      <c r="E149" s="67" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D150" s="13" t="n">
+    </row>
+    <row r="149" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B149" s="71" t="s">
+        <v>210</v>
+      </c>
+      <c r="D149" s="15" t="n">
         <v>44754</v>
       </c>
+      <c r="E149" s="72" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="14" t="s">
+        <v>226</v>
+      </c>
       <c r="B151" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D151" s="13" t="n">
+        <v>227</v>
+      </c>
+      <c r="D151" s="15" t="n">
         <v>44754</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B152" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D152" s="15" t="n">
+        <v>44754</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B153" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D152" s="13" t="n">
+      <c r="D153" s="15" t="n">
         <v>44754</v>
       </c>
-      <c r="E152" s="75"/>
-    </row>
-    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B153" s="76" t="s">
+      <c r="E153" s="70" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B154" s="71" t="s">
         <v>210</v>
       </c>
-      <c r="D153" s="13" t="n">
+      <c r="D154" s="15" t="n">
         <v>44754</v>
       </c>
-      <c r="E153" s="77"/>
-    </row>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="8" t="s">
+      <c r="E154" s="72" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="B156" s="75" t="s">
+        <v>231</v>
+      </c>
+      <c r="D156" s="13" t="n">
+        <v>44754</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B157" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D157" s="15" t="n">
+        <v>44754</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B158" s="75" t="s">
+        <v>208</v>
+      </c>
+      <c r="D158" s="13" t="n">
+        <v>44754</v>
+      </c>
+      <c r="E158" s="70" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B159" s="75" t="s">
+        <v>233</v>
+      </c>
+      <c r="D159" s="13" t="n">
+        <v>44754</v>
+      </c>
+      <c r="E159" s="70" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D161" s="13" t="n">
+        <v>44754</v>
+      </c>
+      <c r="E161" s="76" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B162" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D162" s="15" t="n">
+        <v>44754</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B163" s="77" t="s">
+        <v>237</v>
+      </c>
+      <c r="D163" s="13" t="n">
+        <v>44754</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="12" t="s">
         <v>60</v>
       </c>
+      <c r="B165" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="C165" s="19"/>
+      <c r="D165" s="19"/>
+      <c r="E165" s="43" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="14" t="s">
+        <v>63</v>
+      </c>
       <c r="B166" s="19" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="C166" s="19"/>
-      <c r="D166" s="19"/>
-      <c r="E166" s="43" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B167" s="19" t="s">
-        <v>227</v>
-      </c>
+      <c r="D166" s="37" t="n">
+        <v>44742</v>
+      </c>
+      <c r="E166" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="68"/>
+      <c r="B167" s="19"/>
       <c r="C167" s="19"/>
-      <c r="D167" s="82" t="n">
+      <c r="D167" s="19"/>
+      <c r="E167" s="17"/>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="68"/>
+      <c r="E168" s="26"/>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="68"/>
+      <c r="E169" s="26"/>
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="68"/>
+      <c r="E170" s="26"/>
+    </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="68"/>
+      <c r="E171" s="26"/>
+    </row>
+    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B172" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="C172" s="19"/>
+      <c r="D172" s="15" t="n">
         <v>44742</v>
       </c>
-      <c r="E167" s="18" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="83"/>
-      <c r="B168" s="19"/>
-      <c r="C168" s="19"/>
-      <c r="D168" s="19"/>
-      <c r="E168" s="17"/>
-    </row>
-    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="83"/>
-      <c r="E169" s="26"/>
-    </row>
-    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B170" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="C170" s="19"/>
-      <c r="D170" s="15" t="n">
-        <v>44742</v>
-      </c>
-      <c r="E170" s="19"/>
-    </row>
-    <row r="172" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="12" t="s">
+      <c r="E172" s="19"/>
+    </row>
+    <row r="174" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B172" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="D172" s="13" t="n">
+      <c r="B174" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D174" s="13" t="n">
         <v>44743</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="14" t="s">
-        <v>231</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D173" s="15" t="n">
+    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D175" s="15" t="n">
         <v>44743</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D174" s="15" t="n">
-        <v>44743</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="61" t="s">
-        <v>235</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D175" s="62" t="n">
-        <v>44743</v>
-      </c>
-      <c r="E175" s="35" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="14" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="D176" s="15" t="n">
         <v>44743</v>
       </c>
-      <c r="E176" s="29" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="14" t="s">
-        <v>241</v>
+      <c r="A177" s="61" t="s">
+        <v>248</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D177" s="15" t="n">
-        <v>44748</v>
-      </c>
-      <c r="E177" s="29" t="s">
-        <v>240</v>
+        <v>249</v>
+      </c>
+      <c r="D177" s="62" t="n">
+        <v>44743</v>
+      </c>
+      <c r="E177" s="35" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="14" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="D178" s="15" t="n">
-        <v>44748</v>
+        <v>44743</v>
+      </c>
+      <c r="E178" s="29" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="14" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="D179" s="15" t="n">
+        <v>44748</v>
+      </c>
+      <c r="E179" s="29" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D180" s="15" t="n">
+        <v>44748</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D181" s="15" t="n">
         <v>44750</v>
       </c>
-      <c r="E179" s="1" t="s">
+      <c r="E181" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D180" s="15" t="n">
+    <row r="182" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D182" s="15" t="n">
         <v>44750</v>
       </c>
-      <c r="E180" s="27" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="B183" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D183" s="15" t="n">
+      <c r="E182" s="27" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D185" s="15" t="n">
         <v>44750</v>
       </c>
-      <c r="E183" s="29" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="84" t="s">
-        <v>253</v>
-      </c>
-      <c r="B186" s="3"/>
-    </row>
-    <row r="187" customFormat="false" ht="40.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="28" t="n">
+      <c r="E185" s="29" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="78" t="s">
+        <v>266</v>
+      </c>
+      <c r="B188" s="3"/>
+    </row>
+    <row r="189" customFormat="false" ht="40.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="B187" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="E187" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="28" t="n">
+      <c r="B189" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="B189" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="28" t="n">
+      <c r="B191" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="28" t="n">
         <v>3</v>
       </c>
-      <c r="B191" s="34" t="s">
+      <c r="B193" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="C191" s="10" t="s">
+      <c r="C193" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E191" s="1" t="s">
+      <c r="E193" s="1" t="s">
         <v>78</v>
       </c>
     </row>

--- a/Answer_3.xlsx
+++ b/Answer_3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="281">
   <si>
     <t xml:space="preserve">Михаил Букачук</t>
   </si>
@@ -821,6 +821,12 @@
     <t xml:space="preserve">::password(): View</t>
   </si>
   <si>
+    <t xml:space="preserve">3.1.5.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - вынести выход из сессии из View в метод exit()</t>
+  </si>
+  <si>
     <t xml:space="preserve">3.2</t>
   </si>
   <si>
@@ -977,22 +983,43 @@
     <t xml:space="preserve">::adminCMS(): AdminView</t>
   </si>
   <si>
+    <t xml:space="preserve"> - пересмотреть обработку формы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Новая статья vs редактирование</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - см.ЛК + п.3.1.5.6.2 — загрузка файла в отдельный метод</t>
+  </si>
+  <si>
     <t xml:space="preserve">см.ЛК + п.3.1.5.6.2 — загрузка файла в отдельный метод</t>
   </si>
   <si>
-    <t xml:space="preserve"> - пересмотреть обработку формыъ</t>
-  </si>
-  <si>
     <t xml:space="preserve">3.2.3.4</t>
   </si>
   <si>
     <t xml:space="preserve">::articleDelete(): AdminView</t>
   </si>
   <si>
-    <t xml:space="preserve">Пока только вывод страницы-сообщения об удалении статьи. </t>
-  </si>
-  <si>
     <t xml:space="preserve"> - вынести удаление статьи из adminCMS() в метод deleteArticle()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">см.subscription из ЛК — через ссылку</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - вынести выход из сессии из adminView в метод exit()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">М.б. adminView заменить на View? Они отличаются только текстом в исключении…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">или отнаследовать от View?</t>
   </si>
   <si>
     <t xml:space="preserve">Вынести валидацию  в App/Validator</t>
@@ -1069,6 +1096,9 @@
   <si>
     <t xml:space="preserve">$_SESSION[„user“] заменить на $this→user
 $errors → isset($errors)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - header…</t>
   </si>
   <si>
     <t xml:space="preserve">7</t>
@@ -1281,7 +1311,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1291,7 +1321,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFDE59"/>
-        <bgColor rgb="FFFFCC00"/>
+        <bgColor rgb="FFFFFF99"/>
       </patternFill>
     </fill>
     <fill>
@@ -1321,7 +1351,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF972F"/>
-        <bgColor rgb="FFFF8080"/>
+        <bgColor rgb="FFFF8000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8000"/>
+        <bgColor rgb="FFFF972F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFBF00"/>
+        <bgColor rgb="FFFF972F"/>
       </patternFill>
     </fill>
   </fills>
@@ -1373,7 +1415,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="83">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1634,6 +1676,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1678,11 +1724,23 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1722,7 +1780,7 @@
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FFFF4000"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
@@ -1744,9 +1802,9 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF81D41A"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFFBF00"/>
       <rgbColor rgb="FFFF972F"/>
-      <rgbColor rgb="FFFF4000"/>
+      <rgbColor rgb="FFFF8000"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
@@ -1767,10 +1825,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E193"/>
+  <dimension ref="A1:E203"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A149" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B163" activeCellId="0" sqref="B163"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A152" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B160" activeCellId="0" sqref="B160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2830,7 +2888,7 @@
       <c r="D123" s="64" t="n">
         <v>44750</v>
       </c>
-      <c r="E123" s="29" t="s">
+      <c r="E123" s="65" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2848,68 +2906,71 @@
         <v>181</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="12" t="s">
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="B127" s="57" t="s">
+      <c r="B125" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="D125" s="15" t="n">
+        <v>44755</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B128" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="C127" s="19"/>
-      <c r="D127" s="13" t="n">
+      <c r="C128" s="19"/>
+      <c r="D128" s="13" t="n">
         <v>44754</v>
       </c>
-      <c r="E127" s="65" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="B128" s="66" t="s">
+      <c r="E128" s="66" t="s">
         <v>201</v>
-      </c>
-      <c r="C128" s="19"/>
-      <c r="D128" s="15" t="n">
-        <v>44754</v>
-      </c>
-      <c r="E128" s="67" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B129" s="67" t="s">
         <v>203</v>
       </c>
+      <c r="C129" s="19"/>
       <c r="D129" s="15" t="n">
+        <v>44754</v>
+      </c>
+      <c r="E129" s="68" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D130" s="15" t="n">
         <v>44753</v>
       </c>
-      <c r="E129" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="68"/>
-      <c r="D130" s="69"/>
+      <c r="E130" s="1" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D131" s="15" t="n">
-        <v>44753</v>
-      </c>
+      <c r="A131" s="69"/>
+      <c r="D131" s="70"/>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="14" t="s">
+        <v>207</v>
+      </c>
       <c r="B132" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D132" s="15" t="n">
         <v>44753</v>
@@ -2917,45 +2978,45 @@
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D133" s="15" t="n">
         <v>44753</v>
       </c>
-      <c r="E133" s="70" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B134" s="71" t="s">
+    </row>
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B134" s="1" t="s">
         <v>210</v>
       </c>
       <c r="D134" s="15" t="n">
+        <v>44753</v>
+      </c>
+      <c r="E134" s="71" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B135" s="72" t="s">
+        <v>212</v>
+      </c>
+      <c r="D135" s="15" t="n">
         <v>44754</v>
       </c>
-      <c r="E134" s="72" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B135" s="71"/>
-      <c r="D135" s="69"/>
-      <c r="E135" s="60"/>
+      <c r="E135" s="73" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D136" s="15" t="n">
-        <v>44754</v>
-      </c>
+      <c r="B136" s="72"/>
+      <c r="D136" s="70"/>
+      <c r="E136" s="60"/>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="14" t="s">
+        <v>214</v>
+      </c>
       <c r="B137" s="1" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="D137" s="15" t="n">
         <v>44754</v>
@@ -2963,55 +3024,55 @@
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D138" s="15" t="n">
         <v>44754</v>
       </c>
-      <c r="E138" s="70" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B139" s="71" t="s">
+    </row>
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B139" s="1" t="s">
         <v>210</v>
       </c>
       <c r="D139" s="15" t="n">
         <v>44754</v>
       </c>
-      <c r="E139" s="72" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="73" t="s">
+      <c r="E139" s="71" t="s">
         <v>216</v>
       </c>
-      <c r="B141" s="66" t="s">
+    </row>
+    <row r="140" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B140" s="72" t="s">
+        <v>212</v>
+      </c>
+      <c r="D140" s="15" t="n">
+        <v>44754</v>
+      </c>
+      <c r="E140" s="73" t="s">
         <v>217</v>
       </c>
-      <c r="C141" s="19"/>
-      <c r="D141" s="15" t="n">
-        <v>44754</v>
-      </c>
-      <c r="E141" s="67" t="s">
-        <v>199</v>
-      </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="14" t="s">
+      <c r="A142" s="74" t="s">
         <v>218</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="B142" s="67" t="s">
         <v>219</v>
       </c>
+      <c r="C142" s="19"/>
       <c r="D142" s="15" t="n">
         <v>44754</v>
       </c>
+      <c r="E142" s="68" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="14" t="s">
+        <v>220</v>
+      </c>
       <c r="B143" s="1" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="D143" s="15" t="n">
         <v>44754</v>
@@ -3019,79 +3080,79 @@
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B144" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D144" s="15" t="n">
         <v>44754</v>
       </c>
-      <c r="E144" s="70" t="s">
-        <v>220</v>
-      </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B145" s="71"/>
-      <c r="D145" s="69"/>
-      <c r="E145" s="60"/>
+      <c r="B145" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D145" s="15" t="n">
+        <v>44754</v>
+      </c>
+      <c r="E145" s="71" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="74" t="s">
-        <v>221</v>
-      </c>
-      <c r="B146" s="66" t="s">
-        <v>222</v>
-      </c>
-      <c r="C146" s="19"/>
-      <c r="D146" s="13" t="n">
+      <c r="B146" s="72"/>
+      <c r="D146" s="70"/>
+      <c r="E146" s="60"/>
+    </row>
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="75" t="s">
+        <v>223</v>
+      </c>
+      <c r="B147" s="67" t="s">
+        <v>224</v>
+      </c>
+      <c r="C147" s="19"/>
+      <c r="D147" s="13" t="n">
         <v>44754</v>
       </c>
-      <c r="E146" s="67" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D147" s="15" t="n">
-        <v>44754</v>
+      <c r="E147" s="68" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="14" t="s">
+        <v>225</v>
+      </c>
       <c r="B148" s="1" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="D148" s="15" t="n">
         <v>44754</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B149" s="71" t="s">
-        <v>210</v>
+    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B149" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="D149" s="15" t="n">
         <v>44754</v>
       </c>
-      <c r="E149" s="72" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="B151" s="1" t="s">
+    </row>
+    <row r="150" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B150" s="72" t="s">
+        <v>212</v>
+      </c>
+      <c r="D150" s="15" t="n">
+        <v>44754</v>
+      </c>
+      <c r="E150" s="73" t="s">
         <v>227</v>
       </c>
-      <c r="D151" s="15" t="n">
-        <v>44754</v>
-      </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="14" t="s">
+        <v>228</v>
+      </c>
       <c r="B152" s="1" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="D152" s="15" t="n">
         <v>44754</v>
@@ -3099,328 +3160,373 @@
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B153" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D153" s="15" t="n">
         <v>44754</v>
       </c>
-      <c r="E153" s="70" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B154" s="71" t="s">
+    </row>
+    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B154" s="1" t="s">
         <v>210</v>
       </c>
       <c r="D154" s="15" t="n">
         <v>44754</v>
       </c>
-      <c r="E154" s="72" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="12" t="s">
+      <c r="E154" s="71" t="s">
         <v>230</v>
       </c>
-      <c r="B156" s="75" t="s">
+    </row>
+    <row r="155" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B155" s="72" t="s">
+        <v>212</v>
+      </c>
+      <c r="D155" s="15" t="n">
+        <v>44754</v>
+      </c>
+      <c r="E155" s="73" t="s">
         <v>231</v>
       </c>
-      <c r="D156" s="13" t="n">
+    </row>
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="B157" s="76" t="s">
+        <v>233</v>
+      </c>
+      <c r="D157" s="13" t="n">
+        <v>44755</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B158" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D158" s="15" t="n">
         <v>44754</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B157" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D157" s="15" t="n">
+    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B159" s="77" t="s">
+        <v>210</v>
+      </c>
+      <c r="D159" s="15" t="n">
+        <v>44755</v>
+      </c>
+      <c r="E159" s="71"/>
+    </row>
+    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B160" s="76" t="s">
+        <v>234</v>
+      </c>
+      <c r="D160" s="13" t="n">
+        <v>44755</v>
+      </c>
+      <c r="E160" s="71" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B161" s="76" t="s">
+        <v>236</v>
+      </c>
+      <c r="D161" s="13" t="n">
+        <v>44755</v>
+      </c>
+      <c r="E161" s="71" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D163" s="15" t="n">
+        <v>44755</v>
+      </c>
+      <c r="E163" s="78"/>
+    </row>
+    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B164" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D164" s="15" t="n">
         <v>44754</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B158" s="75" t="s">
-        <v>208</v>
-      </c>
-      <c r="D158" s="13" t="n">
-        <v>44754</v>
-      </c>
-      <c r="E158" s="70" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B159" s="75" t="s">
-        <v>233</v>
-      </c>
-      <c r="D159" s="13" t="n">
-        <v>44754</v>
-      </c>
-      <c r="E159" s="70" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D161" s="13" t="n">
-        <v>44754</v>
-      </c>
-      <c r="E161" s="76" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B162" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D162" s="15" t="n">
-        <v>44754</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B163" s="77" t="s">
-        <v>237</v>
-      </c>
-      <c r="D163" s="13" t="n">
-        <v>44754</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="12" t="s">
+    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B165" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="D165" s="15" t="n">
+        <v>44755</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="B168" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="D168" s="15" t="n">
+        <v>44755</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="79" t="s">
+        <v>244</v>
+      </c>
+      <c r="B169" s="80" t="s">
+        <v>245</v>
+      </c>
+      <c r="E169" s="80" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B165" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="C165" s="19"/>
-      <c r="D165" s="19"/>
-      <c r="E165" s="43" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="14" t="s">
+      <c r="B172" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="C172" s="19"/>
+      <c r="D172" s="19"/>
+      <c r="E172" s="43" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B166" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="C166" s="19"/>
-      <c r="D166" s="37" t="n">
+      <c r="B173" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="C173" s="19"/>
+      <c r="D173" s="37" t="n">
         <v>44742</v>
       </c>
-      <c r="E166" s="18" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="68"/>
-      <c r="B167" s="19"/>
-      <c r="C167" s="19"/>
-      <c r="D167" s="19"/>
-      <c r="E167" s="17"/>
-    </row>
-    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="68"/>
-      <c r="E168" s="26"/>
-    </row>
-    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="68"/>
-      <c r="E169" s="26"/>
-    </row>
-    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="68"/>
-      <c r="E170" s="26"/>
-    </row>
-    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="68"/>
-      <c r="E171" s="26"/>
-    </row>
-    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B172" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="C172" s="19"/>
-      <c r="D172" s="15" t="n">
-        <v>44742</v>
-      </c>
-      <c r="E172" s="19"/>
-    </row>
-    <row r="174" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="B174" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D174" s="13" t="n">
-        <v>44743</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D175" s="15" t="n">
-        <v>44743</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D176" s="15" t="n">
-        <v>44743</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="61" t="s">
-        <v>248</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D177" s="62" t="n">
-        <v>44743</v>
-      </c>
-      <c r="E177" s="35" t="s">
+      <c r="E173" s="18" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D178" s="15" t="n">
-        <v>44743</v>
-      </c>
-      <c r="E178" s="29" t="s">
-        <v>253</v>
-      </c>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="69"/>
+      <c r="B174" s="19"/>
+      <c r="C174" s="19"/>
+      <c r="D174" s="19"/>
+      <c r="E174" s="17"/>
+    </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="69"/>
+      <c r="E175" s="26"/>
+    </row>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="69"/>
+      <c r="E176" s="26"/>
+    </row>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="69"/>
+      <c r="E177" s="26"/>
+    </row>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="69"/>
+      <c r="E178" s="26"/>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B179" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="C179" s="19"/>
+      <c r="D179" s="15" t="n">
+        <v>44742</v>
+      </c>
+      <c r="E179" s="19"/>
+    </row>
+    <row r="181" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D181" s="13" t="n">
+        <v>44743</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="B182" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="D182" s="15" t="n">
+        <v>44743</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="D179" s="15" t="n">
-        <v>44748</v>
-      </c>
-      <c r="E179" s="29" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="14" t="s">
+      <c r="B183" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="D183" s="15" t="n">
+        <v>44743</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="61" t="s">
         <v>257</v>
       </c>
-      <c r="D180" s="15" t="n">
-        <v>44748</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="14" t="s">
+      <c r="B184" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="D184" s="62" t="n">
+        <v>44743</v>
+      </c>
+      <c r="E184" s="35" t="s">
         <v>259</v>
-      </c>
-      <c r="D181" s="15" t="n">
-        <v>44750</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D182" s="15" t="n">
-        <v>44750</v>
-      </c>
-      <c r="E182" s="27" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D185" s="15" t="n">
+        <v>44743</v>
+      </c>
+      <c r="E185" s="29" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="B185" s="3" t="s">
+      <c r="B186" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D185" s="15" t="n">
+      <c r="D186" s="15" t="n">
+        <v>44748</v>
+      </c>
+      <c r="E186" s="29" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D187" s="15" t="n">
+        <v>44748</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D188" s="15" t="n">
         <v>44750</v>
       </c>
-      <c r="E185" s="29" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="78" t="s">
-        <v>266</v>
-      </c>
-      <c r="B188" s="3"/>
-    </row>
-    <row r="189" customFormat="false" ht="40.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="28" t="n">
+      <c r="E188" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D189" s="15" t="n">
+        <v>44750</v>
+      </c>
+      <c r="E189" s="27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B190" s="81" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D195" s="15" t="n">
+        <v>44750</v>
+      </c>
+      <c r="E195" s="29" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="82" t="s">
+        <v>276</v>
+      </c>
+      <c r="B198" s="3"/>
+    </row>
+    <row r="199" customFormat="false" ht="40.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="B189" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="E189" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="28" t="n">
+      <c r="B199" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="B191" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E191" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="28" t="n">
+      <c r="B201" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="28" t="n">
         <v>3</v>
       </c>
-      <c r="B193" s="34" t="s">
+      <c r="B203" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="C193" s="10" t="s">
+      <c r="C203" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E193" s="1" t="s">
+      <c r="E203" s="1" t="s">
         <v>78</v>
       </c>
     </row>

--- a/Answer_3.xlsx
+++ b/Answer_3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="283">
   <si>
     <t xml:space="preserve">Михаил Букачук</t>
   </si>
@@ -1108,6 +1108,12 @@
   </si>
   <si>
     <t xml:space="preserve"> Helper::getErrors($errors['user']) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">При удалении статьи — удалять файл с сервера</t>
   </si>
   <si>
     <t xml:space="preserve">ВОПРОСЫ: </t>
@@ -1415,7 +1421,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="82">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1726,10 +1732,6 @@
     </xf>
     <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1825,10 +1827,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E203"/>
+  <dimension ref="A1:E204"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A152" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B160" activeCellId="0" sqref="B160"/>
+      <selection pane="topLeft" activeCell="D160" activeCellId="0" sqref="D160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3196,7 +3198,7 @@
         <v>233</v>
       </c>
       <c r="D157" s="13" t="n">
-        <v>44755</v>
+        <v>44756</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3221,7 +3223,7 @@
         <v>234</v>
       </c>
       <c r="D160" s="13" t="n">
-        <v>44755</v>
+        <v>44757</v>
       </c>
       <c r="E160" s="71" t="s">
         <v>235</v>
@@ -3232,7 +3234,7 @@
         <v>236</v>
       </c>
       <c r="D161" s="13" t="n">
-        <v>44755</v>
+        <v>44757</v>
       </c>
       <c r="E161" s="71" t="s">
         <v>237</v>
@@ -3248,7 +3250,7 @@
       <c r="D163" s="15" t="n">
         <v>44755</v>
       </c>
-      <c r="E163" s="78"/>
+      <c r="E163" s="31"/>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B164" s="1" t="s">
@@ -3281,13 +3283,13 @@
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="79" t="s">
+      <c r="A169" s="78" t="s">
         <v>244</v>
       </c>
-      <c r="B169" s="80" t="s">
+      <c r="B169" s="79" t="s">
         <v>245</v>
       </c>
-      <c r="E169" s="80" t="s">
+      <c r="E169" s="79" t="s">
         <v>246</v>
       </c>
     </row>
@@ -3470,7 +3472,7 @@
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B190" s="81" t="s">
+      <c r="B190" s="80" t="s">
         <v>272</v>
       </c>
     </row>
@@ -3488,45 +3490,57 @@
         <v>275</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="82" t="s">
+    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="B198" s="3"/>
-    </row>
-    <row r="199" customFormat="false" ht="40.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="28" t="n">
+      <c r="B197" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D197" s="13" t="n">
+        <v>44757</v>
+      </c>
+      <c r="E197" s="29"/>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="81" t="s">
+        <v>278</v>
+      </c>
+      <c r="B199" s="3"/>
+    </row>
+    <row r="200" customFormat="false" ht="40.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="B199" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E199" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="201" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="28" t="n">
+      <c r="B200" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="28" t="n">
         <v>2</v>
       </c>
-      <c r="B201" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="E201" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="28" t="n">
+      <c r="B202" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="28" t="n">
         <v>3</v>
       </c>
-      <c r="B203" s="34" t="s">
+      <c r="B204" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="C203" s="10" t="s">
+      <c r="C204" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E203" s="1" t="s">
+      <c r="E204" s="1" t="s">
         <v>78</v>
       </c>
     </row>

--- a/Answer_3.xlsx
+++ b/Answer_3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="286">
   <si>
     <t xml:space="preserve">Михаил Букачук</t>
   </si>
@@ -812,7 +812,10 @@
     <t xml:space="preserve">3.1.5.6.2</t>
   </si>
   <si>
-    <t xml:space="preserve">TODO: загрузка файла на сервер - убрать в метод? - См. Админку, чтобы использовать один и тот же метод. </t>
+    <t xml:space="preserve">::lk(): View TODO: загрузка файла на сервер - убрать в метод? - См. Админку, чтобы использовать один и тот же метод. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нет, т. к. при изменении сайта можем получить изменения в админке + слишком сложно — овчинка выделки не стоит!</t>
   </si>
   <si>
     <t xml:space="preserve">3.1.5.7</t>
@@ -992,6 +995,9 @@
     <t xml:space="preserve"> - см.ЛК + п.3.1.5.6.2 — загрузка файла в отдельный метод</t>
   </si>
   <si>
+    <t xml:space="preserve">НЕ ИМЕЕТ СМЫСЛА</t>
+  </si>
+  <si>
     <t xml:space="preserve">см.ЛК + п.3.1.5.6.2 — загрузка файла в отдельный метод</t>
   </si>
   <si>
@@ -1016,10 +1022,10 @@
     <t xml:space="preserve">3.2.5</t>
   </si>
   <si>
-    <t xml:space="preserve">М.б. adminView заменить на View? Они отличаются только текстом в исключении…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">или отнаследовать от View?</t>
+    <t xml:space="preserve">М.б. adminView заменить на View или отнаследовать от View? Они отличаются только текстом в исключении…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нет, т. к. при изменении сайта можем получить изменения в админке</t>
   </si>
   <si>
     <t xml:space="preserve">Вынести валидацию  в App/Validator</t>
@@ -1099,6 +1105,9 @@
   </si>
   <si>
     <t xml:space="preserve"> - header…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пока не надо.</t>
   </si>
   <si>
     <t xml:space="preserve">7</t>
@@ -1327,7 +1336,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFDE59"/>
-        <bgColor rgb="FFFFFF99"/>
+        <bgColor rgb="FFFFCC00"/>
       </patternFill>
     </fill>
     <fill>
@@ -1339,7 +1348,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF81D41A"/>
-        <bgColor rgb="FF969696"/>
+        <bgColor rgb="FF77BC65"/>
       </patternFill>
     </fill>
     <fill>
@@ -1350,26 +1359,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF77BC65"/>
+        <bgColor rgb="FF81D41A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF729FCF"/>
-        <bgColor rgb="FF969696"/>
+        <bgColor rgb="FF808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAFD095"/>
+        <bgColor rgb="FF99CCFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF972F"/>
-        <bgColor rgb="FFFF8000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF8000"/>
-        <bgColor rgb="FFFF972F"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFBF00"/>
-        <bgColor rgb="FFFF972F"/>
+        <bgColor rgb="FFFF8080"/>
       </patternFill>
     </fill>
   </fills>
@@ -1421,7 +1430,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="85">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1646,10 +1655,18 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1666,14 +1683,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1682,8 +1691,20 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1722,27 +1743,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1775,14 +1796,14 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFAFD095"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF729FCF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF4000"/>
+      <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
@@ -1804,11 +1825,11 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF81D41A"/>
-      <rgbColor rgb="FFFFBF00"/>
+      <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF972F"/>
-      <rgbColor rgb="FFFF8000"/>
+      <rgbColor rgb="FFFF4000"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF77BC65"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -1829,8 +1850,8 @@
   </sheetPr>
   <dimension ref="A1:E204"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A152" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D160" activeCellId="0" sqref="D160"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A83" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D88" activeCellId="0" sqref="D88:D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2564,40 +2585,43 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="8" t="s">
+      <c r="A88" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B88" s="56" t="s">
+      <c r="B88" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="D88" s="13" t="n">
+      <c r="D88" s="58" t="n">
         <v>44740</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="14" t="s">
+      <c r="A89" s="56" t="s">
         <v>15</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D89" s="15" t="n">
+      <c r="D89" s="58" t="n">
         <v>44740</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="12" t="s">
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="56" t="s">
         <v>19</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>147</v>
+      </c>
+      <c r="D90" s="58" t="n">
+        <v>44760</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B93" s="57" t="s">
+      <c r="B93" s="59" t="s">
         <v>148</v>
       </c>
       <c r="C93" s="19"/>
@@ -2622,11 +2646,11 @@
       <c r="A97" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="B97" s="57" t="s">
+      <c r="B97" s="59" t="s">
         <v>146</v>
       </c>
       <c r="C97" s="19"/>
-      <c r="D97" s="58" t="n">
+      <c r="D97" s="60" t="n">
         <v>44740</v>
       </c>
       <c r="E97" s="19"/>
@@ -2668,7 +2692,7 @@
       <c r="D102" s="15" t="n">
         <v>44742</v>
       </c>
-      <c r="E102" s="59" t="s">
+      <c r="E102" s="61" t="s">
         <v>159</v>
       </c>
     </row>
@@ -2720,7 +2744,7 @@
       <c r="D108" s="15" t="n">
         <v>44743</v>
       </c>
-      <c r="E108" s="60" t="s">
+      <c r="E108" s="62" t="s">
         <v>167</v>
       </c>
     </row>
@@ -2758,13 +2782,13 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="61" t="s">
+      <c r="A113" s="63" t="s">
         <v>174</v>
       </c>
       <c r="B113" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="D113" s="62" t="n">
+      <c r="D113" s="64" t="n">
         <v>44743</v>
       </c>
       <c r="E113" s="1" t="s">
@@ -2772,14 +2796,14 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="12" t="s">
+      <c r="A115" s="14" t="s">
         <v>177</v>
       </c>
       <c r="B115" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="D115" s="13" t="n">
-        <v>44743</v>
+      <c r="D115" s="15" t="n">
+        <v>44760</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>154</v>
@@ -2806,7 +2830,7 @@
       <c r="B117" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D117" s="62" t="n">
+      <c r="D117" s="64" t="n">
         <v>44743</v>
       </c>
     </row>
@@ -2880,26 +2904,26 @@
         <v>193</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="63" t="s">
+    <row r="123" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="65" t="s">
         <v>194</v>
       </c>
-      <c r="B123" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D123" s="64" t="n">
+      <c r="B123" s="66" t="s">
+        <v>195</v>
+      </c>
+      <c r="D123" s="67" t="n">
         <v>44750</v>
       </c>
-      <c r="E123" s="65" t="s">
-        <v>195</v>
+      <c r="E123" s="68" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D124" s="15" t="n">
         <v>44750</v>
@@ -2910,69 +2934,69 @@
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="14" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B125" s="20" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D125" s="15" t="n">
         <v>44755</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="B128" s="57" t="s">
+      <c r="A128" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="B128" s="59" t="s">
         <v>147</v>
       </c>
       <c r="C128" s="19"/>
-      <c r="D128" s="13" t="n">
-        <v>44754</v>
-      </c>
-      <c r="E128" s="66" t="s">
-        <v>201</v>
+      <c r="D128" s="15" t="n">
+        <v>44760</v>
+      </c>
+      <c r="E128" s="69" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="B129" s="67" t="s">
         <v>203</v>
+      </c>
+      <c r="B129" s="70" t="s">
+        <v>204</v>
       </c>
       <c r="C129" s="19"/>
       <c r="D129" s="15" t="n">
         <v>44754</v>
       </c>
-      <c r="E129" s="68" t="s">
-        <v>201</v>
+      <c r="E129" s="71" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="14" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D130" s="15" t="n">
         <v>44753</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="69"/>
-      <c r="D131" s="70"/>
+      <c r="A131" s="72"/>
+      <c r="D131" s="73"/>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="14" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D132" s="15" t="n">
         <v>44753</v>
@@ -2980,7 +3004,7 @@
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D133" s="15" t="n">
         <v>44753</v>
@@ -2988,37 +3012,37 @@
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D134" s="15" t="n">
         <v>44753</v>
       </c>
-      <c r="E134" s="71" t="s">
-        <v>211</v>
+      <c r="E134" s="74" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B135" s="72" t="s">
-        <v>212</v>
+      <c r="B135" s="75" t="s">
+        <v>213</v>
       </c>
       <c r="D135" s="15" t="n">
         <v>44754</v>
       </c>
-      <c r="E135" s="73" t="s">
-        <v>213</v>
+      <c r="E135" s="76" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B136" s="72"/>
-      <c r="D136" s="70"/>
-      <c r="E136" s="60"/>
+      <c r="B136" s="75"/>
+      <c r="D136" s="73"/>
+      <c r="E136" s="62"/>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="14" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D137" s="15" t="n">
         <v>44754</v>
@@ -3026,7 +3050,7 @@
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D138" s="15" t="n">
         <v>44754</v>
@@ -3034,47 +3058,47 @@
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D139" s="15" t="n">
         <v>44754</v>
       </c>
-      <c r="E139" s="71" t="s">
-        <v>216</v>
+      <c r="E139" s="74" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B140" s="72" t="s">
-        <v>212</v>
+      <c r="B140" s="75" t="s">
+        <v>213</v>
       </c>
       <c r="D140" s="15" t="n">
         <v>44754</v>
       </c>
-      <c r="E140" s="73" t="s">
-        <v>217</v>
+      <c r="E140" s="76" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="74" t="s">
-        <v>218</v>
-      </c>
-      <c r="B142" s="67" t="s">
+      <c r="A142" s="77" t="s">
         <v>219</v>
+      </c>
+      <c r="B142" s="70" t="s">
+        <v>220</v>
       </c>
       <c r="C142" s="19"/>
       <c r="D142" s="15" t="n">
         <v>44754</v>
       </c>
-      <c r="E142" s="68" t="s">
-        <v>201</v>
+      <c r="E142" s="71" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="14" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D143" s="15" t="n">
         <v>44754</v>
@@ -3082,7 +3106,7 @@
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B144" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D144" s="15" t="n">
         <v>44754</v>
@@ -3090,41 +3114,41 @@
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D145" s="15" t="n">
         <v>44754</v>
       </c>
-      <c r="E145" s="71" t="s">
-        <v>222</v>
+      <c r="E145" s="74" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B146" s="72"/>
-      <c r="D146" s="70"/>
-      <c r="E146" s="60"/>
+      <c r="B146" s="75"/>
+      <c r="D146" s="73"/>
+      <c r="E146" s="62"/>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="75" t="s">
-        <v>223</v>
-      </c>
-      <c r="B147" s="67" t="s">
+      <c r="A147" s="77" t="s">
         <v>224</v>
       </c>
+      <c r="B147" s="70" t="s">
+        <v>225</v>
+      </c>
       <c r="C147" s="19"/>
-      <c r="D147" s="13" t="n">
-        <v>44754</v>
-      </c>
-      <c r="E147" s="68" t="s">
-        <v>201</v>
+      <c r="D147" s="15" t="n">
+        <v>44760</v>
+      </c>
+      <c r="E147" s="71" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="14" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D148" s="15" t="n">
         <v>44754</v>
@@ -3132,29 +3156,29 @@
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D149" s="15" t="n">
         <v>44754</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B150" s="72" t="s">
-        <v>212</v>
+      <c r="B150" s="75" t="s">
+        <v>213</v>
       </c>
       <c r="D150" s="15" t="n">
         <v>44754</v>
       </c>
-      <c r="E150" s="73" t="s">
-        <v>227</v>
+      <c r="E150" s="76" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="14" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D152" s="15" t="n">
         <v>44754</v>
@@ -3162,7 +3186,7 @@
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B153" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D153" s="15" t="n">
         <v>44754</v>
@@ -3170,82 +3194,85 @@
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B154" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D154" s="15" t="n">
         <v>44754</v>
       </c>
-      <c r="E154" s="71" t="s">
-        <v>230</v>
+      <c r="E154" s="74" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B155" s="72" t="s">
-        <v>212</v>
+      <c r="B155" s="75" t="s">
+        <v>213</v>
       </c>
       <c r="D155" s="15" t="n">
         <v>44754</v>
       </c>
-      <c r="E155" s="73" t="s">
-        <v>231</v>
+      <c r="E155" s="76" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="B157" s="76" t="s">
+      <c r="A157" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="D157" s="13" t="n">
-        <v>44756</v>
+      <c r="B157" s="78" t="s">
+        <v>234</v>
+      </c>
+      <c r="D157" s="15" t="n">
+        <v>44760</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B158" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D158" s="15" t="n">
         <v>44754</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B159" s="77" t="s">
-        <v>210</v>
+      <c r="B159" s="78" t="s">
+        <v>211</v>
       </c>
       <c r="D159" s="15" t="n">
         <v>44755</v>
       </c>
-      <c r="E159" s="71"/>
+      <c r="E159" s="74"/>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B160" s="76" t="s">
-        <v>234</v>
-      </c>
-      <c r="D160" s="13" t="n">
-        <v>44757</v>
-      </c>
-      <c r="E160" s="71" t="s">
+      <c r="B160" s="78" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B161" s="76" t="s">
+      <c r="D160" s="15" t="n">
+        <v>44760</v>
+      </c>
+      <c r="E160" s="74" t="s">
         <v>236</v>
       </c>
-      <c r="D161" s="13" t="n">
-        <v>44757</v>
-      </c>
-      <c r="E161" s="71" t="s">
+    </row>
+    <row r="161" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B161" s="79" t="s">
         <v>237</v>
+      </c>
+      <c r="C161" s="68" t="s">
+        <v>238</v>
+      </c>
+      <c r="D161" s="80" t="n">
+        <v>44760</v>
+      </c>
+      <c r="E161" s="74" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="14" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D163" s="15" t="n">
         <v>44755</v>
@@ -3254,7 +3281,7 @@
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B164" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D164" s="15" t="n">
         <v>44754</v>
@@ -3262,86 +3289,86 @@
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B165" s="20" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D165" s="15" t="n">
         <v>44755</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="14" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B168" s="20" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D168" s="15" t="n">
         <v>44755</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="78" t="s">
-        <v>244</v>
-      </c>
-      <c r="B169" s="79" t="s">
-        <v>245</v>
-      </c>
-      <c r="E169" s="79" t="s">
+    <row r="169" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="65" t="s">
         <v>246</v>
       </c>
+      <c r="B169" s="66" t="s">
+        <v>247</v>
+      </c>
+      <c r="E169" s="81" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="12" t="s">
+      <c r="A172" s="14" t="s">
         <v>60</v>
       </c>
       <c r="B172" s="19" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C172" s="19"/>
       <c r="D172" s="19"/>
       <c r="E172" s="43" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B173" s="19" t="s">
-        <v>249</v>
+      <c r="B173" s="82" t="s">
+        <v>251</v>
       </c>
       <c r="C173" s="19"/>
       <c r="D173" s="37" t="n">
         <v>44742</v>
       </c>
       <c r="E173" s="18" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="69"/>
+      <c r="A174" s="72"/>
       <c r="B174" s="19"/>
       <c r="C174" s="19"/>
       <c r="D174" s="19"/>
       <c r="E174" s="17"/>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="69"/>
+      <c r="A175" s="72"/>
       <c r="E175" s="26"/>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="69"/>
+      <c r="A176" s="72"/>
       <c r="E176" s="26"/>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="69"/>
+      <c r="A177" s="72"/>
       <c r="E177" s="26"/>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="69"/>
+      <c r="A178" s="72"/>
       <c r="E178" s="26"/>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3349,7 +3376,7 @@
         <v>86</v>
       </c>
       <c r="B179" s="19" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C179" s="19"/>
       <c r="D179" s="15" t="n">
@@ -3358,22 +3385,22 @@
       <c r="E179" s="19"/>
     </row>
     <row r="181" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="12" t="s">
+      <c r="A181" s="56" t="s">
         <v>100</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="D181" s="13" t="n">
+        <v>254</v>
+      </c>
+      <c r="D181" s="58" t="n">
         <v>44743</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="14" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D182" s="15" t="n">
         <v>44743</v>
@@ -3381,63 +3408,63 @@
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="14" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D183" s="15" t="n">
         <v>44743</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="61" t="s">
-        <v>257</v>
+      <c r="A184" s="63" t="s">
+        <v>259</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D184" s="62" t="n">
+        <v>260</v>
+      </c>
+      <c r="D184" s="64" t="n">
         <v>44743</v>
       </c>
       <c r="E184" s="35" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="14" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D185" s="15" t="n">
         <v>44743</v>
       </c>
       <c r="E185" s="29" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="14" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D186" s="15" t="n">
         <v>44748</v>
       </c>
       <c r="E186" s="29" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="14" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D187" s="15" t="n">
         <v>44748</v>
@@ -3445,66 +3472,69 @@
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="14" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D188" s="15" t="n">
         <v>44750</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="14" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D189" s="15" t="n">
         <v>44750</v>
       </c>
       <c r="E189" s="27" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B190" s="80" t="s">
-        <v>272</v>
+      <c r="B190" s="83" t="s">
+        <v>274</v>
+      </c>
+      <c r="E190" s="81" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="14" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D195" s="15" t="n">
         <v>44750</v>
       </c>
       <c r="E195" s="29" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="12" t="s">
-        <v>276</v>
+      <c r="A197" s="14" t="s">
+        <v>279</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="D197" s="13" t="n">
-        <v>44757</v>
+        <v>280</v>
+      </c>
+      <c r="D197" s="15" t="n">
+        <v>44760</v>
       </c>
       <c r="E197" s="29"/>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="81" t="s">
-        <v>278</v>
+      <c r="A199" s="84" t="s">
+        <v>281</v>
       </c>
       <c r="B199" s="3"/>
     </row>
@@ -3513,10 +3543,10 @@
         <v>1</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3524,10 +3554,10 @@
         <v>2</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
